--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="18540" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="0" windowWidth="25600" windowHeight="17260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KATE-post" sheetId="1" r:id="rId1"/>
+    <sheet name="DinnerProblem" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="417">
   <si>
     <t>StudentID</t>
   </si>
@@ -1255,13 +1256,28 @@
   </si>
   <si>
     <t>Q16_3</t>
+  </si>
+  <si>
+    <t>incorrect</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>Q16 score</t>
+  </si>
+  <si>
+    <t>Q15 score</t>
+  </si>
+  <si>
+    <t>SRN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1290,6 +1306,32 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1328,22 +1370,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1675,24 +1732,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="10.83203125" style="4"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="4"/>
     <col min="13" max="13" width="10.83203125" style="2"/>
     <col min="15" max="15" width="10.83203125" style="2"/>
     <col min="17" max="17" width="10.83203125" style="2"/>
     <col min="19" max="19" width="10.83203125" style="2"/>
     <col min="20" max="20" width="10.83203125" style="4"/>
-    <col min="22" max="22" width="10.83203125" style="4"/>
+    <col min="22" max="22" width="20.1640625" style="4" customWidth="1"/>
+    <col min="23" max="25" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="67" customWidth="1"/>
     <col min="29" max="29" width="10.83203125" style="2"/>
-    <col min="33" max="33" width="10.83203125" style="2"/>
-    <col min="35" max="35" width="10.83203125" style="2"/>
+    <col min="30" max="30" width="63.83203125" customWidth="1"/>
+    <col min="32" max="32" width="4.1640625" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="67.83203125" customWidth="1"/>
+    <col min="35" max="35" width="9.1640625" style="2" customWidth="1"/>
+    <col min="36" max="36" width="39.5" customWidth="1"/>
+    <col min="37" max="37" width="37.6640625" customWidth="1"/>
+    <col min="38" max="38" width="85.6640625" customWidth="1"/>
     <col min="39" max="39" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1762,6 +1828,9 @@
       <c r="AH1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="AI1" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="AJ1" s="1" t="s">
         <v>409</v>
       </c>
@@ -1770,6 +1839,9 @@
       </c>
       <c r="AL1" s="1" t="s">
         <v>411</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AN1" t="s">
         <v>1</v>
@@ -1857,11 +1929,16 @@
       <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="str">
+        <f>IF(F2=2, "correct","incorrect")</f>
+        <v>correct</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1913,7 +1990,9 @@
       <c r="Z2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
       <c r="AB2">
         <v>1</v>
       </c>
@@ -1933,6 +2012,9 @@
       <c r="AH2" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AI2" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1941,6 +2023,9 @@
       </c>
       <c r="AL2" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>4</v>
       </c>
       <c r="AN2">
         <v>3</v>
@@ -2028,11 +2113,16 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G33" si="0">IF(F3=2, "correct","incorrect")</f>
+        <v>incorrect</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>46</v>
       </c>
@@ -2084,7 +2174,9 @@
       <c r="Z3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
       <c r="AB3">
         <v>2</v>
       </c>
@@ -2104,6 +2196,9 @@
       <c r="AH3" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="AI3" s="2">
+        <v>2</v>
+      </c>
       <c r="AJ3" s="1" t="s">
         <v>52</v>
       </c>
@@ -2112,6 +2207,9 @@
       </c>
       <c r="AL3" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>9</v>
       </c>
       <c r="AN3">
         <v>2</v>
@@ -2199,11 +2297,16 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>59</v>
       </c>
@@ -2255,7 +2358,9 @@
       <c r="Z4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>2</v>
+      </c>
       <c r="AB4">
         <v>2</v>
       </c>
@@ -2275,6 +2380,9 @@
       <c r="AH4" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="AI4" s="2">
+        <v>2</v>
+      </c>
       <c r="AJ4" s="1" t="s">
         <v>65</v>
       </c>
@@ -2283,6 +2391,9 @@
       </c>
       <c r="AL4" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>6</v>
       </c>
       <c r="AN4">
         <v>3</v>
@@ -2370,11 +2481,16 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J5" s="4" t="s">
         <v>73</v>
       </c>
@@ -2426,7 +2542,9 @@
       <c r="Z5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5">
         <v>2</v>
       </c>
@@ -2446,6 +2564,9 @@
       <c r="AH5" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="AI5" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ5" s="1" t="s">
         <v>78</v>
       </c>
@@ -2455,6 +2576,9 @@
       <c r="AL5" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="AM5" s="2">
+        <v>3</v>
+      </c>
       <c r="AN5">
         <v>2</v>
       </c>
@@ -2523,7 +2647,7 @@
       </c>
     </row>
     <row r="6" spans="1:61">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B6" t="s">
@@ -2541,11 +2665,16 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J6" s="4" t="s">
         <v>83</v>
       </c>
@@ -2597,7 +2726,9 @@
       <c r="Z6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
       <c r="AB6">
         <v>2</v>
       </c>
@@ -2617,6 +2748,9 @@
       <c r="AH6" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="AI6" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ6" s="1" t="s">
         <v>88</v>
       </c>
@@ -2625,6 +2759,9 @@
       </c>
       <c r="AL6" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>2</v>
       </c>
       <c r="AN6">
         <v>3</v>
@@ -2712,11 +2849,16 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J7" s="4" t="s">
         <v>94</v>
       </c>
@@ -2768,7 +2910,9 @@
       <c r="Z7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7">
         <v>2</v>
       </c>
@@ -2788,6 +2932,9 @@
       <c r="AH7" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="AI7" s="2">
+        <v>2</v>
+      </c>
       <c r="AJ7" s="1" t="s">
         <v>100</v>
       </c>
@@ -2797,6 +2944,9 @@
       <c r="AL7" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="AM7" s="2">
+        <v>7</v>
+      </c>
       <c r="AN7">
         <v>2</v>
       </c>
@@ -2865,7 +3015,7 @@
       </c>
     </row>
     <row r="8" spans="1:61">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B8" t="s">
@@ -2883,11 +3033,16 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>106</v>
       </c>
@@ -2959,6 +3114,9 @@
       <c r="AH8" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="AI8" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ8" s="1" t="s">
         <v>111</v>
       </c>
@@ -2967,6 +3125,9 @@
       </c>
       <c r="AL8" s="1" t="s">
         <v>113</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>8</v>
       </c>
       <c r="AN8">
         <v>3</v>
@@ -3054,11 +3215,16 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>119</v>
       </c>
@@ -3130,6 +3296,9 @@
       <c r="AH9" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="AI9" s="2">
+        <v>2</v>
+      </c>
       <c r="AJ9" s="1" t="s">
         <v>124</v>
       </c>
@@ -3139,6 +3308,9 @@
       <c r="AL9" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="AM9" s="2">
+        <v>7</v>
+      </c>
       <c r="AN9">
         <v>2</v>
       </c>
@@ -3207,7 +3379,7 @@
       </c>
     </row>
     <row r="10" spans="1:61">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B10" t="s">
@@ -3225,11 +3397,16 @@
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>correct</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>132</v>
       </c>
@@ -3301,6 +3478,9 @@
       <c r="AH10" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ10" s="1" t="s">
         <v>138</v>
       </c>
@@ -3310,6 +3490,9 @@
       <c r="AL10" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="AM10" s="2">
+        <v>3</v>
+      </c>
       <c r="AN10">
         <v>2</v>
       </c>
@@ -3378,7 +3561,7 @@
       </c>
     </row>
     <row r="11" spans="1:61">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B11" t="s">
@@ -3396,11 +3579,16 @@
       <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>correct</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="J11" s="4" t="s">
         <v>146</v>
       </c>
@@ -3472,6 +3660,9 @@
       <c r="AH11" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="AI11" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ11" s="1" t="s">
         <v>152</v>
       </c>
@@ -3481,6 +3672,9 @@
       <c r="AL11" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="AM11" s="2">
+        <v>9</v>
+      </c>
       <c r="AN11">
         <v>3</v>
       </c>
@@ -3549,7 +3743,7 @@
       </c>
     </row>
     <row r="12" spans="1:61">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B12" t="s">
@@ -3567,11 +3761,16 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J12" s="4" t="s">
         <v>158</v>
       </c>
@@ -3643,6 +3842,9 @@
       <c r="AH12" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ12" s="1" t="s">
         <v>163</v>
       </c>
@@ -3651,6 +3853,9 @@
       </c>
       <c r="AL12" s="1" t="s">
         <v>165</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>6</v>
       </c>
       <c r="AN12">
         <v>2</v>
@@ -3738,11 +3943,16 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J13" s="4" t="s">
         <v>170</v>
       </c>
@@ -3814,6 +4024,9 @@
       <c r="AH13" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="AI13" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ13" s="1" t="s">
         <v>176</v>
       </c>
@@ -3822,6 +4035,9 @@
       </c>
       <c r="AL13" s="1" t="s">
         <v>178</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>3</v>
       </c>
       <c r="AN13">
         <v>3</v>
@@ -3909,11 +4125,16 @@
       <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>correct</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="J14" s="4" t="s">
         <v>181</v>
       </c>
@@ -3985,6 +4206,9 @@
       <c r="AH14" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="AI14" s="2">
+        <v>2</v>
+      </c>
       <c r="AJ14" s="1" t="s">
         <v>186</v>
       </c>
@@ -3993,6 +4217,9 @@
       </c>
       <c r="AL14" s="1" t="s">
         <v>188</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>10</v>
       </c>
       <c r="AN14">
         <v>2</v>
@@ -4080,11 +4307,16 @@
       <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>correct</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="J15" s="4" t="s">
         <v>192</v>
       </c>
@@ -4156,6 +4388,9 @@
       <c r="AH15" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="AI15" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ15" s="1" t="s">
         <v>196</v>
       </c>
@@ -4165,6 +4400,9 @@
       <c r="AL15" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="AM15" s="2">
+        <v>11</v>
+      </c>
       <c r="AN15">
         <v>3</v>
       </c>
@@ -4233,7 +4471,7 @@
       </c>
     </row>
     <row r="16" spans="1:61">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>199</v>
       </c>
       <c r="B16" t="s">
@@ -4251,11 +4489,16 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J16" s="4" t="s">
         <v>202</v>
       </c>
@@ -4327,6 +4570,9 @@
       <c r="AH16" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="AI16" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ16" s="1" t="s">
         <v>207</v>
       </c>
@@ -4336,6 +4582,9 @@
       <c r="AL16" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="AM16" s="2">
+        <v>0</v>
+      </c>
       <c r="AN16">
         <v>2</v>
       </c>
@@ -4404,7 +4653,7 @@
       </c>
     </row>
     <row r="17" spans="1:61">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>210</v>
       </c>
       <c r="B17" t="s">
@@ -4422,11 +4671,16 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H17" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J17" s="4" t="s">
         <v>212</v>
       </c>
@@ -4498,6 +4752,9 @@
       <c r="AH17" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="AI17" s="2">
+        <v>2</v>
+      </c>
       <c r="AJ17" s="1" t="s">
         <v>216</v>
       </c>
@@ -4506,6 +4763,9 @@
       </c>
       <c r="AL17" s="1" t="s">
         <v>218</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>7</v>
       </c>
       <c r="AN17">
         <v>2</v>
@@ -4593,11 +4853,16 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J18" s="4" t="s">
         <v>221</v>
       </c>
@@ -4669,6 +4934,9 @@
       <c r="AH18" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="AI18" s="2">
+        <v>2</v>
+      </c>
       <c r="AJ18" s="1" t="s">
         <v>227</v>
       </c>
@@ -4677,6 +4945,9 @@
       </c>
       <c r="AL18" s="1" t="s">
         <v>229</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>7</v>
       </c>
       <c r="AN18">
         <v>1</v>
@@ -4764,11 +5035,16 @@
       <c r="F19" s="1">
         <v>2</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>correct</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="J19" s="4" t="s">
         <v>234</v>
       </c>
@@ -4840,6 +5116,9 @@
       <c r="AH19" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="AI19" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ19" s="1" t="s">
         <v>240</v>
       </c>
@@ -4848,6 +5127,9 @@
       </c>
       <c r="AL19" s="1" t="s">
         <v>242</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>0</v>
       </c>
       <c r="AN19">
         <v>2</v>
@@ -4935,11 +5217,16 @@
       <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>correct</v>
+      </c>
       <c r="H20" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="J20" s="4" t="s">
         <v>247</v>
       </c>
@@ -5011,6 +5298,9 @@
       <c r="AH20" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="AI20" s="2">
+        <v>2</v>
+      </c>
       <c r="AJ20" s="1" t="s">
         <v>252</v>
       </c>
@@ -5020,6 +5310,9 @@
       <c r="AL20" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="AM20" s="2">
+        <v>10</v>
+      </c>
       <c r="AN20">
         <v>2</v>
       </c>
@@ -5088,7 +5381,7 @@
       </c>
     </row>
     <row r="21" spans="1:61">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>255</v>
       </c>
       <c r="B21" t="s">
@@ -5106,11 +5399,16 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J21" s="4" t="s">
         <v>258</v>
       </c>
@@ -5182,6 +5480,9 @@
       <c r="AH21" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="AI21" s="2">
+        <v>2</v>
+      </c>
       <c r="AJ21" s="1" t="s">
         <v>262</v>
       </c>
@@ -5191,6 +5492,9 @@
       <c r="AL21" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="AM21" s="2">
+        <v>4</v>
+      </c>
       <c r="AN21">
         <v>4</v>
       </c>
@@ -5259,7 +5563,7 @@
       </c>
     </row>
     <row r="22" spans="1:61">
-      <c r="A22" t="s">
+      <c r="A22" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B22" t="s">
@@ -5277,11 +5581,16 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J22" s="4" t="s">
         <v>267</v>
       </c>
@@ -5353,6 +5662,9 @@
       <c r="AH22" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="AI22" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ22" s="1" t="s">
         <v>273</v>
       </c>
@@ -5361,6 +5673,9 @@
       </c>
       <c r="AL22" s="1" t="s">
         <v>275</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>9</v>
       </c>
       <c r="AN22">
         <v>2</v>
@@ -5448,11 +5763,16 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J23" s="4" t="s">
         <v>279</v>
       </c>
@@ -5524,6 +5844,9 @@
       <c r="AH23" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="AI23" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ23" s="1" t="s">
         <v>285</v>
       </c>
@@ -5532,6 +5855,9 @@
       </c>
       <c r="AL23" s="1" t="s">
         <v>287</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>4</v>
       </c>
       <c r="AN23">
         <v>2</v>
@@ -5619,11 +5945,16 @@
       <c r="F24" s="1">
         <v>2</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>correct</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="J24" s="4" t="s">
         <v>291</v>
       </c>
@@ -5695,6 +6026,9 @@
       <c r="AH24" s="1" t="s">
         <v>295</v>
       </c>
+      <c r="AI24" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ24" s="1" t="s">
         <v>296</v>
       </c>
@@ -5703,6 +6037,9 @@
       </c>
       <c r="AL24" s="1" t="s">
         <v>298</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>5</v>
       </c>
       <c r="AN24">
         <v>3</v>
@@ -5790,11 +6127,16 @@
       <c r="F25" s="1">
         <v>2</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>correct</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="J25" s="4" t="s">
         <v>304</v>
       </c>
@@ -5866,6 +6208,9 @@
       <c r="AH25" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="AI25" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ25" s="1" t="s">
         <v>310</v>
       </c>
@@ -5875,6 +6220,9 @@
       <c r="AL25" s="1" t="s">
         <v>312</v>
       </c>
+      <c r="AM25" s="2">
+        <v>6</v>
+      </c>
       <c r="AN25">
         <v>3</v>
       </c>
@@ -5943,7 +6291,7 @@
       </c>
     </row>
     <row r="26" spans="1:61">
-      <c r="A26" t="s">
+      <c r="A26" s="6" t="s">
         <v>313</v>
       </c>
       <c r="B26" t="s">
@@ -5961,11 +6309,16 @@
       <c r="F26" s="1">
         <v>2</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>correct</v>
+      </c>
       <c r="H26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J26" s="4" t="s">
         <v>315</v>
       </c>
@@ -6037,6 +6390,9 @@
       <c r="AH26" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="AI26" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ26" s="1" t="s">
         <v>318</v>
       </c>
@@ -6045,6 +6401,9 @@
       </c>
       <c r="AL26" s="1" t="s">
         <v>320</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>9</v>
       </c>
       <c r="AN26">
         <v>2</v>
@@ -6132,11 +6491,16 @@
       <c r="F27" s="1">
         <v>2</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>correct</v>
+      </c>
       <c r="H27" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="J27" s="4" t="s">
         <v>325</v>
       </c>
@@ -6208,6 +6572,9 @@
       <c r="AH27" s="1" t="s">
         <v>331</v>
       </c>
+      <c r="AI27" s="2">
+        <v>2</v>
+      </c>
       <c r="AJ27" s="1" t="s">
         <v>332</v>
       </c>
@@ -6217,6 +6584,9 @@
       <c r="AL27" s="1" t="s">
         <v>334</v>
       </c>
+      <c r="AM27" s="2">
+        <v>4</v>
+      </c>
       <c r="AN27">
         <v>2</v>
       </c>
@@ -6285,7 +6655,7 @@
       </c>
     </row>
     <row r="28" spans="1:61">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>335</v>
       </c>
       <c r="B28" t="s">
@@ -6303,11 +6673,16 @@
       <c r="F28" s="1">
         <v>2</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>correct</v>
+      </c>
       <c r="H28" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="J28" s="4" t="s">
         <v>338</v>
       </c>
@@ -6379,6 +6754,9 @@
       <c r="AH28" s="1" t="s">
         <v>343</v>
       </c>
+      <c r="AI28" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ28" s="1" t="s">
         <v>344</v>
       </c>
@@ -6388,6 +6766,9 @@
       <c r="AL28" s="1" t="s">
         <v>346</v>
       </c>
+      <c r="AM28" s="2">
+        <v>9</v>
+      </c>
       <c r="AN28">
         <v>3</v>
       </c>
@@ -6456,7 +6837,7 @@
       </c>
     </row>
     <row r="29" spans="1:61">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>347</v>
       </c>
       <c r="B29" t="s">
@@ -6474,11 +6855,16 @@
       <c r="F29" s="1">
         <v>1</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H29" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J29" s="4" t="s">
         <v>349</v>
       </c>
@@ -6550,6 +6936,9 @@
       <c r="AH29" s="1" t="s">
         <v>352</v>
       </c>
+      <c r="AI29" s="2">
+        <v>2</v>
+      </c>
       <c r="AJ29" s="1" t="s">
         <v>353</v>
       </c>
@@ -6558,6 +6947,9 @@
       </c>
       <c r="AL29" s="1" t="s">
         <v>355</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>6</v>
       </c>
       <c r="AN29">
         <v>4</v>
@@ -6645,11 +7037,16 @@
       <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H30" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J30" s="4" t="s">
         <v>359</v>
       </c>
@@ -6721,6 +7118,9 @@
       <c r="AH30" s="1" t="s">
         <v>364</v>
       </c>
+      <c r="AI30" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ30" s="1" t="s">
         <v>365</v>
       </c>
@@ -6730,6 +7130,9 @@
       <c r="AL30" s="1" t="s">
         <v>367</v>
       </c>
+      <c r="AM30" s="2">
+        <v>3</v>
+      </c>
       <c r="AN30">
         <v>3</v>
       </c>
@@ -6798,7 +7201,7 @@
       </c>
     </row>
     <row r="31" spans="1:61">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>368</v>
       </c>
       <c r="B31" t="s">
@@ -6816,11 +7219,16 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>incorrect</v>
+      </c>
       <c r="H31" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J31" s="4" t="s">
         <v>370</v>
       </c>
@@ -6892,6 +7300,9 @@
       <c r="AH31" s="1" t="s">
         <v>374</v>
       </c>
+      <c r="AI31" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ31" s="1" t="s">
         <v>375</v>
       </c>
@@ -6900,6 +7311,9 @@
       </c>
       <c r="AL31" s="1" t="s">
         <v>377</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>3</v>
       </c>
       <c r="AN31">
         <v>4</v>
@@ -6987,11 +7401,16 @@
       <c r="F32" s="1">
         <v>2</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>correct</v>
+      </c>
       <c r="H32" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="J32" s="4" t="s">
         <v>380</v>
       </c>
@@ -7063,6 +7482,9 @@
       <c r="AH32" s="1" t="s">
         <v>383</v>
       </c>
+      <c r="AI32" s="2">
+        <v>2</v>
+      </c>
       <c r="AJ32" s="1" t="s">
         <v>384</v>
       </c>
@@ -7072,6 +7494,9 @@
       <c r="AL32" s="1" t="s">
         <v>386</v>
       </c>
+      <c r="AM32" s="2">
+        <v>9</v>
+      </c>
       <c r="AN32">
         <v>2</v>
       </c>
@@ -7140,7 +7565,7 @@
       </c>
     </row>
     <row r="33" spans="1:61">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>387</v>
       </c>
       <c r="B33" t="s">
@@ -7158,11 +7583,16 @@
       <c r="F33" s="1">
         <v>2</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>correct</v>
+      </c>
       <c r="H33" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="J33" s="4" t="s">
         <v>390</v>
       </c>
@@ -7234,6 +7664,9 @@
       <c r="AH33" s="1" t="s">
         <v>394</v>
       </c>
+      <c r="AI33" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ33" s="1" t="s">
         <v>395</v>
       </c>
@@ -7242,6 +7675,9 @@
       </c>
       <c r="AL33" s="1" t="s">
         <v>397</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>8</v>
       </c>
       <c r="AN33">
         <v>3</v>
@@ -7319,4 +7755,181 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="8"/>
+    <col min="2" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A30">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="436">
   <si>
     <t>StudentID</t>
   </si>
@@ -1271,13 +1271,70 @@
   </si>
   <si>
     <t>SRN</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Katie Elaine Abalos</t>
+  </si>
+  <si>
+    <t>Katelyn Michelle Brown</t>
+  </si>
+  <si>
+    <t>Callie Jo Clyde</t>
+  </si>
+  <si>
+    <t>Mary Abigayle English</t>
+  </si>
+  <si>
+    <t>Stephanie Escobedo</t>
+  </si>
+  <si>
+    <t>Linsey Lee Fordyce</t>
+  </si>
+  <si>
+    <t>Victoria Marie Gandy</t>
+  </si>
+  <si>
+    <t>Elizabeth Dean Hardig</t>
+  </si>
+  <si>
+    <t>Rebekah Kylie Hutchison</t>
+  </si>
+  <si>
+    <t>Taylor Denise Jackson</t>
+  </si>
+  <si>
+    <t>Allicyn Lynn Koci</t>
+  </si>
+  <si>
+    <t>Lindsey Beth Kuch</t>
+  </si>
+  <si>
+    <t>Cynthia Louise Matteo</t>
+  </si>
+  <si>
+    <t>Nell Caplis McGowen</t>
+  </si>
+  <si>
+    <t>Misconceptions</t>
+  </si>
+  <si>
+    <t>understanding</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>"Constant difference" or "additive" strategy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1334,6 +1391,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1370,14 +1432,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1386,6 +1452,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1395,12 +1462,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7759,165 +7834,267 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="8"/>
-    <col min="2" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="23" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11" t="s">
         <v>416</v>
       </c>
+      <c r="B2" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>434</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
         <v>103</v>
       </c>
+      <c r="B3" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
         <v>299</v>
       </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="10" t="s">
         <v>199</v>
       </c>
+      <c r="B7" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
         <v>335</v>
       </c>
+      <c r="B8" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="10" t="s">
         <v>141</v>
       </c>
+      <c r="B9" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="10" t="s">
         <v>368</v>
       </c>
+      <c r="B10" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="10" t="s">
         <v>81</v>
       </c>
+      <c r="B11" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="10" t="s">
         <v>255</v>
       </c>
+      <c r="B12" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="10" t="s">
         <v>387</v>
       </c>
+      <c r="B13" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="10" t="s">
         <v>210</v>
       </c>
+      <c r="B14" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="10" t="s">
         <v>313</v>
       </c>
+      <c r="B15" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="10" t="s">
         <v>265</v>
       </c>
+      <c r="B16" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="10" t="s">
         <v>347</v>
       </c>
+      <c r="B17" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="10" t="s">
         <v>155</v>
       </c>
+      <c r="B18" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="10" t="s">
         <v>127</v>
       </c>
+      <c r="B19" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="8" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="8" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="9" t="s">
         <v>114</v>
       </c>
+      <c r="C21" s="13"/>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="8" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="9" t="s">
         <v>356</v>
       </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="8" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="8" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="8" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="8" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="9" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7926,6 +8103,7 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="437">
   <si>
     <t>StudentID</t>
   </si>
@@ -1328,6 +1328,9 @@
   </si>
   <si>
     <t>"Constant difference" or "additive" strategy</t>
+  </si>
+  <si>
+    <t>"Magical doubling method</t>
   </si>
 </sst>
 </file>
@@ -1423,10 +1426,81 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1443,7 +1517,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1452,7 +1526,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1465,6 +1538,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -7834,269 +7930,311 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="10.83203125" style="8"/>
     <col min="2" max="2" width="23" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="7"/>
+    <col min="4" max="6" width="10.83203125" style="7"/>
+    <col min="7" max="7" width="18.1640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="19" t="s">
         <v>435</v>
       </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="H2" s="21" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C3" s="9">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9">
-        <v>3</v>
-      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="22"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
         <v>321</v>
       </c>
+      <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
         <v>166</v>
       </c>
+      <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
         <v>230</v>
       </c>
+      <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="8" t="s">
         <v>288</v>
       </c>
+      <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
         <v>189</v>
       </c>
+      <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
         <v>91</v>
       </c>
+      <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="8" t="s">
         <v>243</v>
       </c>
+      <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="8" t="s">
         <v>276</v>
       </c>
+      <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="8" t="s">
         <v>219</v>
       </c>
+      <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="8" t="s">
         <v>378</v>
       </c>
+      <c r="F31" s="22"/>
     </row>
   </sheetData>
   <sortState ref="A2:A30">

--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="439">
   <si>
     <t>StudentID</t>
   </si>
@@ -1330,7 +1330,13 @@
     <t>"Constant difference" or "additive" strategy</t>
   </si>
   <si>
-    <t>"Magical doubling method</t>
+    <t>"Magical doubling" method</t>
+  </si>
+  <si>
+    <t>"Buildup" method</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1523,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1539,6 +1545,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1561,6 +1568,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -7930,10 +7943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -7941,47 +7954,60 @@
     <col min="1" max="1" width="10.83203125" style="8"/>
     <col min="2" max="2" width="23" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="7"/>
+    <col min="4" max="5" width="10.83203125" style="7"/>
+    <col min="6" max="6" width="5.33203125" style="7" customWidth="1"/>
     <col min="7" max="7" width="18.1640625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="7"/>
+    <col min="8" max="8" width="10.83203125" style="7"/>
+    <col min="9" max="9" width="16" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="23" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
         <v>416</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="15" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>434</v>
       </c>
+      <c r="I2" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>434</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
         <v>103</v>
       </c>
@@ -7992,55 +8018,103 @@
         <v>3</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="F3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="8">
+        <v>5</v>
+      </c>
+      <c r="H3" s="25">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
         <v>199</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
       <c r="D7" s="8"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+      <c r="H7" s="26">
+        <v>3</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4</v>
+      </c>
+      <c r="J7" s="8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
         <v>335</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>438</v>
+      </c>
       <c r="D8" s="8"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
         <v>141</v>
       </c>
@@ -8049,9 +8123,13 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
         <v>368</v>
       </c>
@@ -8060,9 +8138,13 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">
         <v>81</v>
       </c>
@@ -8071,9 +8153,13 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" s="9" t="s">
         <v>255</v>
       </c>
@@ -8082,9 +8168,13 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
         <v>387</v>
       </c>
@@ -8093,9 +8183,13 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
         <v>210</v>
       </c>
@@ -8104,9 +8198,13 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="9" t="s">
         <v>313</v>
       </c>
@@ -8115,9 +8213,13 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
         <v>265</v>
       </c>
@@ -8126,9 +8228,13 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
         <v>347</v>
       </c>
@@ -8137,9 +8243,13 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
         <v>155</v>
       </c>
@@ -8148,9 +8258,13 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:10">
       <c r="A19" s="9" t="s">
         <v>127</v>
       </c>
@@ -8159,82 +8273,108 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:10">
       <c r="A20" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:10">
       <c r="A21" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:10">
       <c r="A22" s="8" t="s">
         <v>356</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:10">
       <c r="A23" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:10">
       <c r="A24" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:10">
       <c r="A25" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="H25" s="23"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:10">
       <c r="A26" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:10">
       <c r="A27" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:10">
       <c r="A28" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:10">
       <c r="A29" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:10">
       <c r="A30" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:10">
       <c r="A31" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="H31" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:A30">

--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -7946,7 +7946,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8121,13 +8121,23 @@
       <c r="B9" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="G9" s="8">
+        <v>4</v>
+      </c>
+      <c r="H9" s="26">
+        <v>4</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="9" t="s">
@@ -8136,13 +8146,23 @@
       <c r="B10" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+      <c r="H10" s="26">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8">
+        <v>5</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="9" t="s">

--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="439">
   <si>
     <t>StudentID</t>
   </si>
@@ -7946,7 +7946,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8171,12 +8171,18 @@
       <c r="B11" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>438</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>438</v>
+      </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>438</v>
+      </c>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10">
@@ -8186,13 +8192,23 @@
       <c r="B12" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="G12" s="8">
+        <v>5</v>
+      </c>
+      <c r="H12" s="26">
+        <v>4</v>
+      </c>
+      <c r="I12" s="8">
+        <v>5</v>
+      </c>
+      <c r="J12" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">

--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -7946,7 +7946,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8217,13 +8217,23 @@
       <c r="B13" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8">
+        <v>5</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
@@ -8232,13 +8242,23 @@
       <c r="B14" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="9" t="s">
@@ -8247,13 +8267,23 @@
       <c r="B15" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8">
+        <v>3</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="G15" s="8">
+        <v>3</v>
+      </c>
+      <c r="H15" s="26">
+        <v>3</v>
+      </c>
+      <c r="I15" s="8">
+        <v>4</v>
+      </c>
+      <c r="J15" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
@@ -8262,13 +8292,23 @@
       <c r="B16" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8">
+        <v>3</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="G16" s="8">
+        <v>5</v>
+      </c>
+      <c r="H16" s="26">
+        <v>5</v>
+      </c>
+      <c r="I16" s="8">
+        <v>5</v>
+      </c>
+      <c r="J16" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
@@ -8277,13 +8317,23 @@
       <c r="B17" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8">
+        <v>5</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="G17" s="8">
+        <v>5</v>
+      </c>
+      <c r="H17" s="26">
+        <v>4</v>
+      </c>
+      <c r="I17" s="8">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
@@ -8292,13 +8342,23 @@
       <c r="B18" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="9" t="s">
@@ -8307,13 +8367,23 @@
       <c r="B19" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="G19" s="8">
+        <v>3</v>
+      </c>
+      <c r="H19" s="26">
+        <v>4</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8" t="s">

--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="0" windowWidth="25600" windowHeight="17260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1280" yWindow="0" windowWidth="25600" windowHeight="17260" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KATE-post" sheetId="1" r:id="rId1"/>
     <sheet name="DinnerProblem" sheetId="2" r:id="rId2"/>
+    <sheet name="FoodDriveProblem" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="445">
   <si>
     <t>StudentID</t>
   </si>
@@ -1337,13 +1338,31 @@
   </si>
   <si>
     <t>missing</t>
+  </si>
+  <si>
+    <t>Why?</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  greater than 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   increase of n%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24% of 525</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1377,6 +1396,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1512,7 +1539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1522,8 +1549,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1531,60 +1560,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7945,8 +7984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8494,4 +8533,274 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="8"/>
+      <c r="B1" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="18">
+      <c r="A5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="18">
+      <c r="A6" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="18">
+      <c r="A7" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18">
+      <c r="A8" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18">
+      <c r="A9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18">
+      <c r="A10" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18">
+      <c r="A11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18">
+      <c r="A12" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18">
+      <c r="A13" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18">
+      <c r="A14" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18">
+      <c r="A15" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18">
+      <c r="A16" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" ht="18">
+      <c r="A21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" ht="18">
+      <c r="A22" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" ht="18">
+      <c r="A23" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" ht="18">
+      <c r="A24" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" ht="18">
+      <c r="A25" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" ht="18">
+      <c r="A26" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" ht="18">
+      <c r="A27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="18">
+      <c r="A28" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="18">
+      <c r="A29" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="18">
+      <c r="A30" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="18">
+      <c r="A31" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B31" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -1459,7 +1459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1538,6 +1538,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1552,7 +1561,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1588,6 +1597,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1610,6 +1622,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8011,10 +8051,10 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="13" t="s">
         <v>437</v>
       </c>
@@ -8036,13 +8076,13 @@
       <c r="G2" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="23" t="s">
         <v>434</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>434</v>
       </c>
     </row>
@@ -8061,7 +8101,7 @@
       <c r="G3" s="8">
         <v>5</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="26">
         <v>5</v>
       </c>
       <c r="I3" s="8">
@@ -8077,9 +8117,9 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="F4" s="23"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="26"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
@@ -8089,9 +8129,9 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="F5" s="23"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="26"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
@@ -8101,9 +8141,9 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="F6" s="23"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="26"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
@@ -8118,11 +8158,11 @@
         <v>4</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="F7" s="23"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="8">
         <v>5</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="27">
         <v>3</v>
       </c>
       <c r="I7" s="8">
@@ -8143,11 +8183,11 @@
         <v>438</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="F8" s="23"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="8" t="s">
         <v>438</v>
       </c>
@@ -8164,11 +8204,11 @@
         <v>5</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="F9" s="23"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="8">
         <v>4</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="27">
         <v>4</v>
       </c>
       <c r="I9" s="8">
@@ -8189,11 +8229,11 @@
         <v>3</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="F10" s="23"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="8">
         <v>4</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="27">
         <v>3</v>
       </c>
       <c r="I10" s="8">
@@ -8214,11 +8254,11 @@
         <v>438</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="F11" s="23"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="8" t="s">
         <v>438</v>
       </c>
@@ -8235,11 +8275,11 @@
         <v>2</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="F12" s="23"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="8">
         <v>5</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="27">
         <v>4</v>
       </c>
       <c r="I12" s="8">
@@ -8260,11 +8300,11 @@
         <v>5</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="F13" s="23"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="8">
         <v>5</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="27">
         <v>0</v>
       </c>
       <c r="I13" s="8">
@@ -8285,11 +8325,11 @@
         <v>0</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="F14" s="23"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="27">
         <v>0</v>
       </c>
       <c r="I14" s="8">
@@ -8310,11 +8350,11 @@
         <v>3</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="F15" s="23"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="8">
         <v>3</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="27">
         <v>3</v>
       </c>
       <c r="I15" s="8">
@@ -8335,11 +8375,11 @@
         <v>3</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="F16" s="23"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="8">
         <v>5</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="27">
         <v>5</v>
       </c>
       <c r="I16" s="8">
@@ -8360,11 +8400,11 @@
         <v>5</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="F17" s="23"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="8">
         <v>5</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="27">
         <v>4</v>
       </c>
       <c r="I17" s="8">
@@ -8385,11 +8425,11 @@
         <v>1</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="F18" s="23"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="27">
         <v>1</v>
       </c>
       <c r="I18" s="8">
@@ -8410,11 +8450,11 @@
         <v>3</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="8">
         <v>3</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="27">
         <v>4</v>
       </c>
       <c r="I19" s="8">
@@ -8428,8 +8468,8 @@
       <c r="A20" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
@@ -8438,8 +8478,8 @@
         <v>114</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="F21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
@@ -8449,8 +8489,8 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="F22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
@@ -8458,8 +8498,8 @@
       <c r="A23" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
@@ -8467,8 +8507,8 @@
       <c r="A24" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
@@ -8476,50 +8516,50 @@
       <c r="A25" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="H31" s="24"/>
     </row>
   </sheetData>
   <sortState ref="A2:A30">
@@ -8540,7 +8580,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8554,18 +8594,18 @@
       <c r="B1" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="18">
       <c r="A2" s="10" t="s">
@@ -8574,226 +8614,508 @@
       <c r="B2" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="31" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>418</v>
       </c>
+      <c r="C3" s="36">
+        <v>5</v>
+      </c>
+      <c r="D3" s="37">
+        <v>5</v>
+      </c>
+      <c r="E3" s="36">
+        <v>5</v>
+      </c>
+      <c r="F3" s="37">
+        <v>4</v>
+      </c>
+      <c r="G3" s="36">
+        <v>5</v>
+      </c>
+      <c r="H3" s="37">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" ht="18">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="18">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="18">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="34" t="s">
         <v>419</v>
       </c>
+      <c r="C7" s="38">
+        <v>5</v>
+      </c>
+      <c r="D7" s="39">
+        <v>5</v>
+      </c>
+      <c r="E7" s="38">
+        <v>5</v>
+      </c>
+      <c r="F7" s="39">
+        <v>5</v>
+      </c>
+      <c r="G7" s="38">
+        <v>3</v>
+      </c>
+      <c r="H7" s="39">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="18">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="34" t="s">
         <v>420</v>
       </c>
+      <c r="C8" s="38">
+        <v>4</v>
+      </c>
+      <c r="D8" s="39">
+        <v>4</v>
+      </c>
+      <c r="E8" s="38">
+        <v>5</v>
+      </c>
+      <c r="F8" s="39">
+        <v>5</v>
+      </c>
+      <c r="G8" s="38">
+        <v>5</v>
+      </c>
+      <c r="H8" s="39">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="18">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="34" t="s">
         <v>421</v>
       </c>
+      <c r="C9" s="38">
+        <v>4</v>
+      </c>
+      <c r="D9" s="39">
+        <v>4</v>
+      </c>
+      <c r="E9" s="38">
+        <v>5</v>
+      </c>
+      <c r="F9" s="39">
+        <v>5</v>
+      </c>
+      <c r="G9" s="38">
+        <v>5</v>
+      </c>
+      <c r="H9" s="39">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="18">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="34" t="s">
         <v>422</v>
       </c>
+      <c r="C10" s="38">
+        <v>5</v>
+      </c>
+      <c r="D10" s="39">
+        <v>3</v>
+      </c>
+      <c r="E10" s="38">
+        <v>5</v>
+      </c>
+      <c r="F10" s="39">
+        <v>2</v>
+      </c>
+      <c r="G10" s="38">
+        <v>5</v>
+      </c>
+      <c r="H10" s="39">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="18">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="34" t="s">
         <v>423</v>
       </c>
+      <c r="C11" s="38">
+        <v>3</v>
+      </c>
+      <c r="D11" s="39">
+        <v>3</v>
+      </c>
+      <c r="E11" s="38">
+        <v>2</v>
+      </c>
+      <c r="F11" s="39">
+        <v>2</v>
+      </c>
+      <c r="G11" s="38">
+        <v>4</v>
+      </c>
+      <c r="H11" s="39">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="18">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="34" t="s">
         <v>424</v>
       </c>
+      <c r="C12" s="38">
+        <v>5</v>
+      </c>
+      <c r="D12" s="39">
+        <v>4</v>
+      </c>
+      <c r="E12" s="38">
+        <v>5</v>
+      </c>
+      <c r="F12" s="39">
+        <v>5</v>
+      </c>
+      <c r="G12" s="38">
+        <v>5</v>
+      </c>
+      <c r="H12" s="39">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="18">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="34" t="s">
         <v>425</v>
       </c>
+      <c r="C13" s="38">
+        <v>5</v>
+      </c>
+      <c r="D13" s="39">
+        <v>5</v>
+      </c>
+      <c r="E13" s="38">
+        <v>5</v>
+      </c>
+      <c r="F13" s="39">
+        <v>5</v>
+      </c>
+      <c r="G13" s="38">
+        <v>5</v>
+      </c>
+      <c r="H13" s="39">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="18">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="34" t="s">
         <v>426</v>
       </c>
+      <c r="C14" s="38">
+        <v>5</v>
+      </c>
+      <c r="D14" s="39">
+        <v>4</v>
+      </c>
+      <c r="E14" s="38">
+        <v>5</v>
+      </c>
+      <c r="F14" s="39">
+        <v>5</v>
+      </c>
+      <c r="G14" s="38">
+        <v>5</v>
+      </c>
+      <c r="H14" s="39">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="18">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="34" t="s">
         <v>427</v>
       </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" ht="18">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="34" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="9" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" ht="18">
+      <c r="A17" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="34" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="18">
-      <c r="A18" s="9" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8" ht="18">
+      <c r="A18" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="34" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="18">
-      <c r="A19" s="9" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" ht="18">
+      <c r="A19" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="34" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="18">
-      <c r="A20" s="8" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8" ht="18">
+      <c r="A20" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" ht="18">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="1:8" ht="18">
+      <c r="A21" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" ht="18">
-      <c r="A22" s="8" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" spans="1:8" ht="18">
+      <c r="A22" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" ht="18">
-      <c r="A23" s="8" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+    </row>
+    <row r="23" spans="1:8" ht="18">
+      <c r="A23" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" ht="18">
-      <c r="A24" s="8" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:8" ht="18">
+      <c r="A24" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" ht="18">
-      <c r="A25" s="8" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" ht="18">
+      <c r="A25" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" ht="18">
-      <c r="A26" s="8" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:8" ht="18">
+      <c r="A26" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" ht="18">
-      <c r="A27" s="8" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:8" ht="18">
+      <c r="A27" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" ht="18">
-      <c r="A28" s="8" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="1:8" ht="18">
+      <c r="A28" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" ht="18">
-      <c r="A29" s="8" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8" ht="18">
+      <c r="A29" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" ht="18">
-      <c r="A30" s="8" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
+    </row>
+    <row r="30" spans="1:8" ht="18">
+      <c r="A30" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" ht="18">
-      <c r="A31" s="8" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" spans="1:8" ht="18">
+      <c r="A31" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -8580,7 +8580,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8910,10 +8910,18 @@
       <c r="B15" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
+      <c r="C15" s="38">
+        <v>5</v>
+      </c>
+      <c r="D15" s="39">
+        <v>3</v>
+      </c>
+      <c r="E15" s="38">
+        <v>4</v>
+      </c>
+      <c r="F15" s="39">
+        <v>4</v>
+      </c>
       <c r="G15" s="38"/>
       <c r="H15" s="39"/>
     </row>

--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="0" windowWidth="25600" windowHeight="17260" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1280" yWindow="0" windowWidth="25600" windowHeight="17260" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="KATE-post" sheetId="1" r:id="rId1"/>
+    <sheet name="KATE-pre" sheetId="1" r:id="rId1"/>
     <sheet name="DinnerProblem" sheetId="2" r:id="rId2"/>
     <sheet name="FoodDriveProblem" sheetId="3" r:id="rId3"/>
+    <sheet name="KATE-post" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="479">
   <si>
     <t>StudentID</t>
   </si>
@@ -1356,6 +1357,108 @@
   </si>
   <si>
     <t xml:space="preserve">  24% of 525</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>Tell Jaquann that he is right, but teach the class the proper way to do it by setting up equations. You can't express what Jaquann said in numbers.Jaquann's answer is correct because it adds up to $30 which is what the problem asks for. I would set up a 3 variable equation with x, y, and z being pants, shirts and coats, and then solve for each variable to find the answer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would say that Jaquann showed us a great example that there are many ways to solve a problem, but the way I want them to solve these kind of problems in my class is…..4 pants * $5 = $20 / 5 shirts * $2 = $10 / 10 + 20 = $30……. 2s + 5p = 30 / p + s = 9 / then solve for the equations to get p = 4 and s = 5. </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Good morning class today we are going to pick up with our problem that we were working on yesterday. Jaquann would you mind explaining your answer again to us?....He is right because he thought carefully and worked out the problem in an efficient manner by working with just one term instead of trying to figure out by using all three. Once he figured out for one term he was able to use the extra money left over to fit with another term and figure out the number that way....I would have solved the problem the same way by working with the numbers to find the answer that best fit....He is right because he thought carefully and worked out the problem in an efficient manner by working with just one term instead of trying to figure out by using all three. Once he figured out for one term he was able to use the extra money left over to fit with another term and figure out the number that way....I would have solved the problem the same way by working with the numbers to find the answer that best fit.</t>
+  </si>
+  <si>
+    <t>I would explain that while Jaquann's method can be used, it is difficult to use on problems with even more variables or numbers which are more difficult to work with. Rather, the method that I am going to show you now is going to be easier to use on other problems...Jaquann's answer is correct because he has arrived at the correct values. His answer works because the numbers are easy enough to work with….I would solve this problem either using Jaquann's method or a system of equations….I would solve this problem either using Jaquann's method or a system of equations.</t>
+  </si>
+  <si>
+    <t>I would figure out what Jaquann worked the problem and go over it with the students….He found what the price would be with all shirts and found how much money would be left and from there he new that it was not only pants so he would take one shirt off and even it out until the price was correct and there was a combination of pants and shirts....x = pants / y = shirts / x+ y = 9 / 2.00x + 5.00y = 30 /  / y = 9 - x / 2x + 5(9 - x) = 30 / x = 10/3 / y = 17/3.</t>
+  </si>
+  <si>
+    <t>I would ask if anyone got another answer that was different or the same as Jaquann's answer. I would also ask if anyone solved it a different way. I then would set up the problem and explain what I am doing. ..because 5 shirts times $2=$10 and 4 pants times $5= $20, then the total cost of the clothes is $30. ...5(2)+4(5)=30</t>
+  </si>
+  <si>
+    <t>I'd address them that Jaquann was accurate in his way of solving and have him explain to the class if he is confident enough after the teacher encourages him that he is correct….It is correct because there are probably many ways to answer this problem. He did 5 shirts ($18) and 4 pants($12) which is a total of $30….I would show the students and make a table showing each as their prices given. I'd show the price per and have the total of 30 at the end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would start over with the problem briefly and then continue with that Jaquann said to see if he was correct….He did the math properly without any misconceptions. ….I would use the chart and work it out as the problem explains.  </t>
+  </si>
+  <si>
+    <t>By starting the class with this questions and addressing the misconceptions….Because he correctly calculated the prices of the shirts and pants...I would solve it the same way to Jaquanns.</t>
+  </si>
+  <si>
+    <t>I would first start by asking the student what they know from the problem and what are we given and looking for. I will then look at the misconception that the student is having and try to explain to them why his or her problem is wrong and how we can fix the problem to make it right...the answer is correct because if i Multiply 5 (2) and 4(5), the answer is 10+20, which is $30. and the total number of items bought it 9. there is more than just one way to solve this problem. ...I would go through each item and see what the max number of each item i could purchase before hitting $30, and then find a combination of items that equals to a total of 9 items totaling $30.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would pick up where we left off and start by saying, "Ok class, yesterday, Jaquann explained that there would by 5 shirts and 4 pants for this order that cost $30.  Let's do the math to see if he is correct." ...Jaquann's answer is correct because 5 shirts would cost $10, and 4 pants would cost $20, for a total of $30…..I would solve this problem by setting up an equation.  Something like, S + P + C = T...Shirts, plus pants, plus coats, equals the total.  Since we know the prices for each item of clothing, the equation would really look like: 2S + 5P +7S = T.  Then I  would input what Jaquann suggested for the numbers of shirts and pants.  This would look like, 2(5) + 5(4) + 7(0) = T.  From this equation, we see that taking 5 shirts and 4 pairs of pants would cost $30. </t>
+  </si>
+  <si>
+    <t>I would explain how this could be right for this particular problem but that it won't always be right….Because the math all works out to fit with what we know.,..2s+5p=30 / s+p=9 / p=-s+9 / Substitute for p into the first equation and solve for s. Take s and, in turn, solve for p in the second equation.</t>
+  </si>
+  <si>
+    <t>I would explain this is correct but htere are many other outcomes of shirts ...It is correct because 9x2 is 18 which gives you...I would put all the different combos of shirts pants and coats</t>
+  </si>
+  <si>
+    <t>I will still go over the lesson and make sure that everyone understands how to write two equations for a problem...Jaquann correctly solved the problem by using deductions in class and assuming that all the items were shirts first. There's nothing wrong with his way...Let x represent shirts and y represent pants.  / x+y=9  and  2x+5y=30 / x=9-y    so      2(9-y)+5y=30 /                          18-2y+5y=30 /                           3y=30-18  /                             y= 12/3 = 4 / x+4=9 / x=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would start where we left off last time, and ask Jaquann to keep explaining his answer….He thought out the process and solved it how he wanted to….I would solve it the same way. </t>
+  </si>
+  <si>
+    <t>okay class, at the end of last class Jaquann solved the equation for us and we didnt have time to discuss it so thats where we will start calss today.</t>
+  </si>
+  <si>
+    <t>Bring up the problem and have Jaquann answer the problem again on the board. Tell the class that this is right but ask if anyone else can come up with an answer….We can show the work to explain...I would make an equation such as $30=$2s + $5p + $7c and solve from there.</t>
+  </si>
+  <si>
+    <t>I will go over how Jaquann's method was correct, but I will also instruct on the typical mathematic way to solve for the variables instead. It would be helpful for the students to learn both ways….Jaquann's answer is correct because he did the guess-and-check method. If you work the problem mathematically, the answer is 5 shirts and 4 pants….2s+5p=30 / s+p=9, which can be reduced to s=9-p / so, you can combine them: / 2(9-p)+5p=30 / 18-2p+5p=30 / 3p=12 / p=4 / s+4=9 / S=9-4 / S=5</t>
+  </si>
+  <si>
+    <t>I will address them and ask the class how they thought Jaquann got the answer he did. Then I will explain that his way is only one way to solve it and we will be going over more ways in class today, in case they don't understand Jaquann's thought process....His answer is correct because he worked it out correctly and got the correct answer...I would set up two equations, x+y=9 and 2x+5y = 30. Then i would solve the first for both variables and plug them one at a time into the second equation.This will give me the correct values for x and y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will tell them that we will go through the problem again and explore that different options of how to solve this problem. ...Jaquann's answer is correct because 5 shirts times 2 dollars is 10 dollars and 4 pants times 5 dollars is 20. Together that makes 30 dollars. ...I would solve this problem probably just by guessing and checking. Seeing how many with each would work and what would put me over 9 articles of clothing or 30 dollars. </t>
+  </si>
+  <si>
+    <t>AF1010</t>
+  </si>
+  <si>
+    <t>Hello class, today we will be working with linear equations...He just happened to get the correct answer without actually doing the problem correctly. ...I would have made a table with all of the possible combinations that give me $30 and then used process of elimination to get the correct answer</t>
+  </si>
+  <si>
+    <t>Remind them of the problem that was introduced yesterday, explain that Jaquan was correct, and continue to show them how to solve it...She did come up with the correct answer but the way in which she solved it will not work for every problem given that is like this. It is best to write the equations and solve from there. ...create 2 equations from the information we are given.  / 2x + 5y = 30 / x + y = 9 / From this we can multiply the second equation by -2 in order to cancel out the x's. / 2x + 5y = 30 / -2x - 2y = -18 / leaving us with 3y = 12; y = 4 / then we can plug the 4 into the x + y = 9 giving us x = 5</t>
+  </si>
+  <si>
+    <t>I will tell them that Jaquann did find the correct answer using his method but that there are simpler steps to finding this. ...She did send 4 pants and 5 shirts to the cleaners. His answer was correct because he found how many pants he could take until there was not an even number of shirts as well. ..2x+5y=30 / x+y=9 /  / 9-x=6 -2/5x / 3=3/5x / 5=x /  / So, she sent 5 shirts. / 5+y=9 / y=4 pants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i would address my class by refreshing their memories of the problem we previously saw. ...if there was 5 shits it would cost $10 / if there was 4 pants it would cost $20 / 10+20=30...i would show it as shown above / </t>
+  </si>
+  <si>
+    <t>Hi. Today we will continue learning about systems of equations...The left over $12 is divided by the difference in cost between shirts and pants ($3). 12/3 = 4….I would make a table that included the total costs of all the different combinations of shirts and pants. All rows would have 9 total items. The column with $30 as the total cost would be the answer.</t>
+  </si>
+  <si>
+    <t>I would go ahead and show how to do the math with the x+y=9 and 30=2x+5y. This way you can just set up a small system of equations and figure out the x and y value…...Jaquann went ahead and dissected the problem instead of following the rigorous math steps. He understood how all the items couldn't be just shirts because it wouldn't be enough money. Therefore, he went on with this. How he got to the exact statement with all the informtation is beyond me. I can see how you can get the first two parts but after that I wasn't able to follow it...I would do exactly as I stated in a. I would to x+y=9 with x being shirts and y being pants. Then I would do 30=2x + 5y since shirts cost 2 and pants cost 5. Then I would get y=9-x and plug in into the big equation of 30=2x+5y and get x=5 which gives me y= 4 since 9 items -5 shirts = 4 pants.</t>
+  </si>
+  <si>
+    <t>That was a very interesting way that you solved the problem yesterday, Jaquann. You came up with the correct answer, too. That was a very unique way that you solved this problem, and I'm glad it worked for you. Now let's all pay attention to the way I show you that you can solve this. That way, we'll have more than one strategy to solve this......I can't really understand the way Jaquann solved this problem, but I do know that they came to the correct answer because I checked it using my method. They used some type of guess and check method, it looks like…..I would solve this problem by creating a system of linear equations. I know that 9 articles of clothing were taken to the dry cleaners, which consisted of only shirts and pants, so I can create the equation s+p=9. I picked s to represent number of shirts and p to represent number of pants. I also know that the combination cost $30, and shirts cost $2 and pants cost $5, so I can create the equation 2s+5p=30. I can then use the first equation, isolate a variable, and substitute it into the second equation, getting s=5 and p=4.</t>
+  </si>
+  <si>
+    <t>I will first address the classroom by explaining the topic and giving a brief discussion and examples about the problems we are going to workout for the day. ….His answer was correct because there are 5 shirts and 4 pants but the way he thought out the problem and explained it was incorrect. because when you add 5(2)+4(5)=30….y=5(2)+4(5)=30</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1651,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1560,8 +1663,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1652,18 +1757,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1995,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI33"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A33"/>
+    <sheetView topLeftCell="AD1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8022,10 +8137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B31"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8038,10 +8153,12 @@
     <col min="7" max="7" width="18.1640625" style="7" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="7"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="7"/>
+    <col min="10" max="10" width="10.83203125" style="7"/>
+    <col min="11" max="11" width="10.83203125" style="8"/>
+    <col min="12" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="10" t="s">
         <v>432</v>
       </c>
@@ -8060,7 +8177,7 @@
       </c>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="10" t="s">
         <v>416</v>
       </c>
@@ -8085,8 +8202,11 @@
       <c r="J2" s="23" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="35" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="9" t="s">
         <v>103</v>
       </c>
@@ -8110,8 +8230,12 @@
       <c r="J3" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="8">
+        <f>SUM(C3:J3)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
@@ -8122,8 +8246,12 @@
       <c r="H4" s="27"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="8">
+        <f t="shared" ref="K4:K31" si="0">SUM(C4:J4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="8" t="s">
         <v>179</v>
       </c>
@@ -8134,8 +8262,12 @@
       <c r="H5" s="27"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="8" t="s">
         <v>299</v>
       </c>
@@ -8146,8 +8278,12 @@
       <c r="H6" s="27"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="9" t="s">
         <v>199</v>
       </c>
@@ -8171,8 +8307,12 @@
       <c r="J7" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
         <v>335</v>
       </c>
@@ -8192,8 +8332,12 @@
         <v>438</v>
       </c>
       <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="9" t="s">
         <v>141</v>
       </c>
@@ -8217,8 +8361,12 @@
       <c r="J9" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="9" t="s">
         <v>368</v>
       </c>
@@ -8242,8 +8390,12 @@
       <c r="J10" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="9" t="s">
         <v>81</v>
       </c>
@@ -8263,8 +8415,12 @@
         <v>438</v>
       </c>
       <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="9" t="s">
         <v>255</v>
       </c>
@@ -8288,8 +8444,12 @@
       <c r="J12" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="9" t="s">
         <v>387</v>
       </c>
@@ -8313,8 +8473,12 @@
       <c r="J13" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
         <v>210</v>
       </c>
@@ -8338,8 +8502,12 @@
       <c r="J14" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="9" t="s">
         <v>313</v>
       </c>
@@ -8363,8 +8531,12 @@
       <c r="J15" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="9" t="s">
         <v>265</v>
       </c>
@@ -8388,8 +8560,12 @@
       <c r="J16" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="9" t="s">
         <v>347</v>
       </c>
@@ -8413,8 +8589,12 @@
       <c r="J17" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="9" t="s">
         <v>155</v>
       </c>
@@ -8438,8 +8618,12 @@
       <c r="J18" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="9" t="s">
         <v>127</v>
       </c>
@@ -8463,8 +8647,12 @@
       <c r="J19" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
         <v>321</v>
       </c>
@@ -8472,8 +8660,12 @@
       <c r="H20" s="24"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
         <v>114</v>
       </c>
@@ -8482,8 +8674,12 @@
       <c r="H21" s="24"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
         <v>356</v>
       </c>
@@ -8493,8 +8689,12 @@
       <c r="H22" s="24"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
         <v>166</v>
       </c>
@@ -8502,8 +8702,12 @@
       <c r="H23" s="24"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="8" t="s">
         <v>230</v>
       </c>
@@ -8511,55 +8715,87 @@
       <c r="H24" s="24"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="8" t="s">
         <v>288</v>
       </c>
       <c r="F25" s="24"/>
       <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="8" t="s">
         <v>189</v>
       </c>
       <c r="F26" s="24"/>
       <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="8" t="s">
         <v>91</v>
       </c>
       <c r="F27" s="24"/>
       <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="8" t="s">
         <v>243</v>
       </c>
       <c r="F28" s="24"/>
       <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="8" t="s">
         <v>276</v>
       </c>
       <c r="F29" s="24"/>
       <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="8" t="s">
         <v>219</v>
       </c>
       <c r="F30" s="24"/>
       <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="8" t="s">
         <v>378</v>
       </c>
       <c r="F31" s="24"/>
       <c r="H31" s="24"/>
+      <c r="K31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:A30">
@@ -8577,10 +8813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8589,7 +8825,7 @@
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="8"/>
       <c r="B1" s="10" t="s">
         <v>432</v>
@@ -8607,7 +8843,7 @@
       </c>
       <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:9" ht="18">
       <c r="A2" s="10" t="s">
         <v>416</v>
       </c>
@@ -8632,8 +8868,11 @@
       <c r="H2" s="31" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18">
+      <c r="I2" s="42" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="21" t="s">
         <v>103</v>
       </c>
@@ -8658,8 +8897,12 @@
       <c r="H3" s="37">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18">
+      <c r="I3" s="43">
+        <f>C3+D3+F3+G3+H3</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18">
       <c r="A4" s="32" t="s">
         <v>68</v>
       </c>
@@ -8670,8 +8913,12 @@
       <c r="F4" s="39"/>
       <c r="G4" s="38"/>
       <c r="H4" s="39"/>
-    </row>
-    <row r="5" spans="1:8" ht="18">
+      <c r="I4" s="43">
+        <f t="shared" ref="I4:I19" si="0">C4+D4+F4+G4+H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="32" t="s">
         <v>179</v>
       </c>
@@ -8682,8 +8929,12 @@
       <c r="F5" s="39"/>
       <c r="G5" s="38"/>
       <c r="H5" s="39"/>
-    </row>
-    <row r="6" spans="1:8" ht="18">
+      <c r="I5" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="32" t="s">
         <v>299</v>
       </c>
@@ -8694,8 +8945,12 @@
       <c r="F6" s="39"/>
       <c r="G6" s="38"/>
       <c r="H6" s="39"/>
-    </row>
-    <row r="7" spans="1:8" ht="18">
+      <c r="I6" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18">
       <c r="A7" s="33" t="s">
         <v>199</v>
       </c>
@@ -8720,8 +8975,12 @@
       <c r="H7" s="39">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="18">
+      <c r="I7" s="43">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18">
       <c r="A8" s="33" t="s">
         <v>335</v>
       </c>
@@ -8746,8 +9005,12 @@
       <c r="H8" s="39">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="18">
+      <c r="I8" s="43">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18">
       <c r="A9" s="33" t="s">
         <v>141</v>
       </c>
@@ -8772,8 +9035,12 @@
       <c r="H9" s="39">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="18">
+      <c r="I9" s="43">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="33" t="s">
         <v>368</v>
       </c>
@@ -8798,8 +9065,12 @@
       <c r="H10" s="39">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="18">
+      <c r="I10" s="43">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="33" t="s">
         <v>81</v>
       </c>
@@ -8824,8 +9095,12 @@
       <c r="H11" s="39">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="18">
+      <c r="I11" s="43">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="33" t="s">
         <v>255</v>
       </c>
@@ -8850,8 +9125,12 @@
       <c r="H12" s="39">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="18">
+      <c r="I12" s="43">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="33" t="s">
         <v>387</v>
       </c>
@@ -8876,8 +9155,12 @@
       <c r="H13" s="39">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="18">
+      <c r="I13" s="43">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="33" t="s">
         <v>210</v>
       </c>
@@ -8902,8 +9185,12 @@
       <c r="H14" s="39">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="18">
+      <c r="I14" s="43">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="33" t="s">
         <v>313</v>
       </c>
@@ -8922,66 +9209,138 @@
       <c r="F15" s="39">
         <v>4</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="1:8" ht="18">
+      <c r="G15" s="38">
+        <v>5</v>
+      </c>
+      <c r="H15" s="39">
+        <v>4</v>
+      </c>
+      <c r="I15" s="43">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="33" t="s">
         <v>265</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-    </row>
-    <row r="17" spans="1:8" ht="18">
+      <c r="C16" s="38">
+        <v>3</v>
+      </c>
+      <c r="D16" s="39">
+        <v>4</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="F16" s="39">
+        <v>5</v>
+      </c>
+      <c r="G16" s="38">
+        <v>5</v>
+      </c>
+      <c r="H16" s="39">
+        <v>3</v>
+      </c>
+      <c r="I16" s="43">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="33" t="s">
         <v>347</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="18" spans="1:8" ht="18">
+      <c r="C17" s="38">
+        <v>4</v>
+      </c>
+      <c r="D17" s="39">
+        <v>3</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="F17" s="39">
+        <v>0</v>
+      </c>
+      <c r="G17" s="38">
+        <v>3</v>
+      </c>
+      <c r="H17" s="39">
+        <v>3</v>
+      </c>
+      <c r="I17" s="43">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18">
       <c r="A18" s="33" t="s">
         <v>155</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="1:8" ht="18">
+      <c r="C18" s="38">
+        <v>3</v>
+      </c>
+      <c r="D18" s="39">
+        <v>3</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="F18" s="39">
+        <v>2</v>
+      </c>
+      <c r="G18" s="38">
+        <v>5</v>
+      </c>
+      <c r="H18" s="39">
+        <v>4</v>
+      </c>
+      <c r="I18" s="43">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18">
       <c r="A19" s="33" t="s">
         <v>127</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-    </row>
-    <row r="20" spans="1:8" ht="18">
+      <c r="C19" s="38">
+        <v>5</v>
+      </c>
+      <c r="D19" s="39">
+        <v>5</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" s="39">
+        <v>4</v>
+      </c>
+      <c r="G19" s="38">
+        <v>5</v>
+      </c>
+      <c r="H19" s="39">
+        <v>5</v>
+      </c>
+      <c r="I19" s="43">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="32" t="s">
         <v>321</v>
       </c>
@@ -8992,8 +9351,9 @@
       <c r="F20" s="39"/>
       <c r="G20" s="38"/>
       <c r="H20" s="39"/>
-    </row>
-    <row r="21" spans="1:8" ht="18">
+      <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="1:9" ht="18">
       <c r="A21" s="32" t="s">
         <v>114</v>
       </c>
@@ -9005,7 +9365,7 @@
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
     </row>
-    <row r="22" spans="1:8" ht="18">
+    <row r="22" spans="1:9" ht="18">
       <c r="A22" s="32" t="s">
         <v>356</v>
       </c>
@@ -9017,7 +9377,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="1:8" ht="18">
+    <row r="23" spans="1:9" ht="18">
       <c r="A23" s="32" t="s">
         <v>166</v>
       </c>
@@ -9029,7 +9389,7 @@
       <c r="G23" s="38"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="24" spans="1:8" ht="18">
+    <row r="24" spans="1:9" ht="18">
       <c r="A24" s="32" t="s">
         <v>230</v>
       </c>
@@ -9041,7 +9401,7 @@
       <c r="G24" s="38"/>
       <c r="H24" s="39"/>
     </row>
-    <row r="25" spans="1:8" ht="18">
+    <row r="25" spans="1:9" ht="18">
       <c r="A25" s="32" t="s">
         <v>288</v>
       </c>
@@ -9053,7 +9413,7 @@
       <c r="G25" s="38"/>
       <c r="H25" s="39"/>
     </row>
-    <row r="26" spans="1:8" ht="18">
+    <row r="26" spans="1:9" ht="18">
       <c r="A26" s="32" t="s">
         <v>189</v>
       </c>
@@ -9065,7 +9425,7 @@
       <c r="G26" s="38"/>
       <c r="H26" s="39"/>
     </row>
-    <row r="27" spans="1:8" ht="18">
+    <row r="27" spans="1:9" ht="18">
       <c r="A27" s="32" t="s">
         <v>91</v>
       </c>
@@ -9077,7 +9437,7 @@
       <c r="G27" s="38"/>
       <c r="H27" s="39"/>
     </row>
-    <row r="28" spans="1:8" ht="18">
+    <row r="28" spans="1:9" ht="18">
       <c r="A28" s="32" t="s">
         <v>243</v>
       </c>
@@ -9089,7 +9449,7 @@
       <c r="G28" s="38"/>
       <c r="H28" s="39"/>
     </row>
-    <row r="29" spans="1:8" ht="18">
+    <row r="29" spans="1:9" ht="18">
       <c r="A29" s="32" t="s">
         <v>276</v>
       </c>
@@ -9101,7 +9461,7 @@
       <c r="G29" s="38"/>
       <c r="H29" s="39"/>
     </row>
-    <row r="30" spans="1:8" ht="18">
+    <row r="30" spans="1:9" ht="18">
       <c r="A30" s="32" t="s">
         <v>219</v>
       </c>
@@ -9113,7 +9473,7 @@
       <c r="G30" s="38"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="1:8" ht="18">
+    <row r="31" spans="1:9" ht="18">
       <c r="A31" s="35" t="s">
         <v>378</v>
       </c>
@@ -9124,6 +9484,368 @@
       <c r="F31" s="41"/>
       <c r="G31" s="40"/>
       <c r="H31" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="54.5" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>470</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="0" windowWidth="25600" windowHeight="17260" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1300" yWindow="0" windowWidth="25600" windowHeight="17260" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KATE-pre" sheetId="1" r:id="rId1"/>
@@ -2110,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI33"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9501,7 +9501,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9537,7 +9537,10 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <f>1+1+1+1</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -9548,7 +9551,10 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <f>2+3+2+2</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -9559,7 +9565,9 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -9570,7 +9578,10 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <f>1+1+1+1</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -9581,7 +9592,10 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <f>1+1+1+1</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -9592,7 +9606,10 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <f>2+2+2+2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -9603,7 +9620,10 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <f>1+0+0+0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -9614,7 +9634,10 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <f>1+0+0+0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
@@ -9625,7 +9648,10 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
@@ -9636,7 +9662,10 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
@@ -9647,7 +9676,10 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <f>1+2+1+1</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
@@ -9658,7 +9690,10 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <f>1+1+1+1</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
@@ -9669,7 +9704,10 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <f>2+1+1+1</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
@@ -9680,7 +9718,10 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <f>1+2+1+1</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
@@ -9691,7 +9732,10 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <f>2+3+2+3</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
@@ -9702,7 +9746,10 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <f>1+0+0+0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
@@ -9713,7 +9760,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
@@ -9724,7 +9774,10 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <f>1+2+1+1</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
@@ -9735,7 +9788,10 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <f>2+3+3+3</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
@@ -9746,7 +9802,10 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <f>2+2+1+1</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
@@ -9757,7 +9816,10 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
@@ -9768,7 +9830,10 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <f>0+2+0+0</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
@@ -9779,7 +9844,10 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <f>3+3+2+3</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
@@ -9790,7 +9858,10 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <f>2+3+2+3</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
@@ -9801,7 +9872,10 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
@@ -9812,7 +9886,10 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <f>1+2+1+1</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
@@ -9823,7 +9900,10 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <f>2+3+2+3</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
@@ -9834,7 +9914,10 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <f>2+3+2+2</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
@@ -9845,7 +9928,10 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="KATE-pre" sheetId="1" r:id="rId1"/>
-    <sheet name="DinnerProblem" sheetId="2" r:id="rId2"/>
-    <sheet name="FoodDriveProblem" sheetId="3" r:id="rId3"/>
-    <sheet name="KATE-post" sheetId="4" r:id="rId4"/>
+    <sheet name="KATE-post" sheetId="4" r:id="rId2"/>
+    <sheet name="DinnerProblem" sheetId="2" r:id="rId3"/>
+    <sheet name="FoodDriveProblem" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="483">
   <si>
     <t>StudentID</t>
   </si>
@@ -1459,6 +1459,18 @@
   </si>
   <si>
     <t>I will first address the classroom by explaining the topic and giving a brief discussion and examples about the problems we are going to workout for the day. ….His answer was correct because there are 5 shirts and 4 pants but the way he thought out the problem and explained it was incorrect. because when you add 5(2)+4(5)=30….y=5(2)+4(5)=30</t>
+  </si>
+  <si>
+    <t>We test for understanding of</t>
+  </si>
+  <si>
+    <t>proportions</t>
+  </si>
+  <si>
+    <t>percentages</t>
+  </si>
+  <si>
+    <t>Scrore</t>
   </si>
 </sst>
 </file>
@@ -1651,8 +1663,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1766,19 +1782,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8137,10 +8157,457 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="54.5" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2">
+        <f>1+1+1+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2">
+        <f>2+3+2+2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2">
+        <f>1+1+1+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2">
+        <f>1+1+1+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2">
+        <f>2+2+2+2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2">
+        <f>1+0+0+0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2">
+        <f>1+0+0+0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2">
+        <f>1+2+1+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2">
+        <f>1+1+1+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2">
+        <f>2+1+1+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2">
+        <f>1+2+1+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2">
+        <f>2+3+2+3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2">
+        <f>1+0+0+0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2">
+        <f>1+2+1+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2">
+        <f>2+3+3+3</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2">
+        <f>2+2+1+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>470</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2">
+        <f>0+2+0+0</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2">
+        <f>3+3+2+3</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2">
+        <f>2+3+2+3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2">
+        <f>1+2+1+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2">
+        <f>2+3+2+3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2">
+        <f>2+3+2+2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8158,7 +8625,7 @@
     <col min="12" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="10" t="s">
         <v>432</v>
       </c>
@@ -8177,7 +8644,7 @@
       </c>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
         <v>416</v>
       </c>
@@ -8202,11 +8669,11 @@
       <c r="J2" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="K2" s="35" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="16" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="9" t="s">
         <v>103</v>
       </c>
@@ -8235,7 +8702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
@@ -8250,8 +8717,11 @@
         <f t="shared" ref="K4:K31" si="0">SUM(C4:J4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
         <v>179</v>
       </c>
@@ -8266,8 +8736,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
         <v>299</v>
       </c>
@@ -8283,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" s="9" t="s">
         <v>199</v>
       </c>
@@ -8312,7 +8785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" s="9" t="s">
         <v>335</v>
       </c>
@@ -8337,7 +8810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9" s="9" t="s">
         <v>141</v>
       </c>
@@ -8366,7 +8839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
         <v>368</v>
       </c>
@@ -8395,7 +8868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="A11" s="9" t="s">
         <v>81</v>
       </c>
@@ -8420,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="A12" s="9" t="s">
         <v>255</v>
       </c>
@@ -8449,7 +8922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="A13" s="9" t="s">
         <v>387</v>
       </c>
@@ -8478,7 +8951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="A14" s="9" t="s">
         <v>210</v>
       </c>
@@ -8507,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15" s="9" t="s">
         <v>313</v>
       </c>
@@ -8536,7 +9009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16" s="9" t="s">
         <v>265</v>
       </c>
@@ -8811,12 +9284,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8825,7 +9298,7 @@
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="8"/>
       <c r="B1" s="10" t="s">
         <v>432</v>
@@ -8843,7 +9316,7 @@
       </c>
       <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:9" ht="18">
+    <row r="2" spans="1:11" ht="18">
       <c r="A2" s="10" t="s">
         <v>416</v>
       </c>
@@ -8872,7 +9345,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18">
+    <row r="3" spans="1:11" ht="18">
       <c r="A3" s="21" t="s">
         <v>103</v>
       </c>
@@ -8902,7 +9375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18">
+    <row r="4" spans="1:11" ht="18">
       <c r="A4" s="32" t="s">
         <v>68</v>
       </c>
@@ -8917,8 +9390,11 @@
         <f t="shared" ref="I4:I19" si="0">C4+D4+F4+G4+H4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18">
+      <c r="K4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18">
       <c r="A5" s="32" t="s">
         <v>179</v>
       </c>
@@ -8933,8 +9409,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18">
+      <c r="K5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18">
       <c r="A6" s="32" t="s">
         <v>299</v>
       </c>
@@ -8950,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18">
+    <row r="7" spans="1:11" ht="18">
       <c r="A7" s="33" t="s">
         <v>199</v>
       </c>
@@ -8980,7 +9459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18">
+    <row r="8" spans="1:11" ht="18">
       <c r="A8" s="33" t="s">
         <v>335</v>
       </c>
@@ -9010,7 +9489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18">
+    <row r="9" spans="1:11" ht="18">
       <c r="A9" s="33" t="s">
         <v>141</v>
       </c>
@@ -9040,7 +9519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18">
+    <row r="10" spans="1:11" ht="18">
       <c r="A10" s="33" t="s">
         <v>368</v>
       </c>
@@ -9070,7 +9549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18">
+    <row r="11" spans="1:11" ht="18">
       <c r="A11" s="33" t="s">
         <v>81</v>
       </c>
@@ -9100,7 +9579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18">
+    <row r="12" spans="1:11" ht="18">
       <c r="A12" s="33" t="s">
         <v>255</v>
       </c>
@@ -9130,7 +9609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18">
+    <row r="13" spans="1:11" ht="18">
       <c r="A13" s="33" t="s">
         <v>387</v>
       </c>
@@ -9160,7 +9639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18">
+    <row r="14" spans="1:11" ht="18">
       <c r="A14" s="33" t="s">
         <v>210</v>
       </c>
@@ -9190,7 +9669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18">
+    <row r="15" spans="1:11" ht="18">
       <c r="A15" s="33" t="s">
         <v>313</v>
       </c>
@@ -9220,7 +9699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18">
+    <row r="16" spans="1:11" ht="18">
       <c r="A16" s="33" t="s">
         <v>265</v>
       </c>
@@ -9494,451 +9973,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="54.5" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2">
-        <f>1+1+1+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2">
-        <f>2+3+2+2</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2">
-        <f>1+1+1+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2">
-        <f>1+1+1+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2">
-        <f>2+2+2+2</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2">
-        <f>1+0+0+0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2">
-        <f>1+0+0+0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2">
-        <f>0+0+0+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2">
-        <f>0+0+0+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2">
-        <f>1+2+1+1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2">
-        <f>1+1+1+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2">
-        <f>2+1+1+1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2">
-        <f>1+2+1+1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2">
-        <f>2+3+2+3</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2">
-        <f>1+0+0+0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>276</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2">
-        <f>0+0+0+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2">
-        <f>1+2+1+1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>387</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2">
-        <f>2+3+3+3</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>265</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2">
-        <f>2+2+1+1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2">
-        <f>0+0+0+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>470</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2">
-        <f>0+2+0+0</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>335</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2">
-        <f>3+3+2+3</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>313</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2">
-        <f>2+3+2+3</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>368</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2">
-        <f>0+0+0+0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>243</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2">
-        <f>1+2+1+1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2">
-        <f>2+3+2+3</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>347</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2">
-        <f>2+3+2+2</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>356</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2">
-        <f>0+0+0+0</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Fall2013_data.xlsx
+++ b/Fall2013_data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="0" windowWidth="25600" windowHeight="17260" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2800" yWindow="0" windowWidth="23020" windowHeight="17040" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KATE-pre" sheetId="1" r:id="rId1"/>
     <sheet name="KATE-post" sheetId="4" r:id="rId2"/>
     <sheet name="DinnerProblem" sheetId="2" r:id="rId3"/>
     <sheet name="FoodDriveProblem" sheetId="3" r:id="rId4"/>
+    <sheet name="misconception" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="519">
   <si>
     <t>StudentID</t>
   </si>
@@ -1338,9 +1339,6 @@
     <t>"Buildup" method</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>Why?</t>
   </si>
   <si>
@@ -1470,14 +1468,125 @@
     <t>percentages</t>
   </si>
   <si>
-    <t>Scrore</t>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Tschantz</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>Shoffner</t>
+  </si>
+  <si>
+    <t>McKenzie</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>Menking</t>
+  </si>
+  <si>
+    <t>Sheldon</t>
+  </si>
+  <si>
+    <t>Bostick</t>
+  </si>
+  <si>
+    <t>Osegueda</t>
+  </si>
+  <si>
+    <t>Albus</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>percent_2</t>
+  </si>
+  <si>
+    <t>percent_3</t>
+  </si>
+  <si>
+    <t>percent_1</t>
+  </si>
+  <si>
+    <t>proportion_1</t>
+  </si>
+  <si>
+    <t>proportion_2</t>
+  </si>
+  <si>
+    <t>proportion_3</t>
+  </si>
+  <si>
+    <t>Xvalues</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>ExprEq</t>
+  </si>
+  <si>
+    <t>KATE_1</t>
+  </si>
+  <si>
+    <t>KATE_2</t>
+  </si>
+  <si>
+    <t>KATE_3</t>
+  </si>
+  <si>
+    <t>KATE_4</t>
+  </si>
+  <si>
+    <t>KATE_5</t>
+  </si>
+  <si>
+    <t>KATE_6</t>
+  </si>
+  <si>
+    <t>KATE_7</t>
+  </si>
+  <si>
+    <t>KATE_8</t>
+  </si>
+  <si>
+    <t>KATE_9</t>
+  </si>
+  <si>
+    <t>KATE_10</t>
+  </si>
+  <si>
+    <t>KATE_11</t>
+  </si>
+  <si>
+    <t>Baily Escover</t>
+  </si>
+  <si>
+    <t>Brooke Young</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1546,6 +1655,18 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1663,7 +1784,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1681,8 +1802,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1701,9 +1856,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1781,8 +1933,51 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1791,6 +1986,23 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1799,6 +2011,23 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8171,20 +8400,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="44" t="s">
         <v>447</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8192,7 +8421,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8206,7 +8435,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -8220,7 +8449,7 @@
         <v>189</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -8233,7 +8462,7 @@
         <v>199</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -8247,7 +8476,7 @@
         <v>378</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8261,7 +8490,7 @@
         <v>255</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -8275,7 +8504,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -8289,7 +8518,7 @@
         <v>321</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -8303,7 +8532,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8317,7 +8546,7 @@
         <v>127</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -8331,7 +8560,7 @@
         <v>288</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -8345,7 +8574,7 @@
         <v>299</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -8359,7 +8588,7 @@
         <v>155</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -8373,7 +8602,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -8387,7 +8616,7 @@
         <v>91</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -8401,7 +8630,7 @@
         <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -8415,7 +8644,7 @@
         <v>276</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -8429,7 +8658,7 @@
         <v>141</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -8443,7 +8672,7 @@
         <v>387</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -8457,7 +8686,7 @@
         <v>265</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -8471,7 +8700,7 @@
         <v>210</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8482,10 +8711,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>469</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -8499,7 +8728,7 @@
         <v>335</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8513,7 +8742,7 @@
         <v>313</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -8527,7 +8756,7 @@
         <v>368</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -8541,7 +8770,7 @@
         <v>243</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8555,7 +8784,7 @@
         <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -8569,7 +8798,7 @@
         <v>347</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -8583,7 +8812,7 @@
         <v>356</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -8604,10 +8833,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8629,20 +8858,20 @@
       <c r="B1" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="25" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="J1" s="15"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
@@ -8651,26 +8880,26 @@
       <c r="B2" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="16" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>482</v>
+      <c r="K2" s="15" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8684,11 +8913,12 @@
         <v>3</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="8">
         <v>5</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <v>5</v>
       </c>
       <c r="I3" s="8">
@@ -8698,63 +8928,91 @@
         <v>4</v>
       </c>
       <c r="K3" s="8">
-        <f>SUM(C3:J3)</f>
-        <v>22</v>
-      </c>
+        <f>C3+H3+J3</f>
+        <v>12</v>
+      </c>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="B4" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
       <c r="D4" s="8"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="27"/>
+      <c r="H4" s="26">
+        <v>2</v>
+      </c>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8">
+        <v>2</v>
+      </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K31" si="0">SUM(C4:J4)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="K4:K34" si="0">C4+H4+J4</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
         <v>179</v>
       </c>
+      <c r="B5" s="23" t="s">
+        <v>445</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="F5" s="24"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="27"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L5" s="8"/>
       <c r="M5" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="B6" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
       <c r="D6" s="8"/>
-      <c r="F6" s="24"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="27"/>
+      <c r="H6" s="26">
+        <v>3</v>
+      </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
       <c r="K6" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="9" t="s">
@@ -8767,11 +9025,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="F7" s="24"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="8">
         <v>5</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <v>3</v>
       </c>
       <c r="I7" s="8">
@@ -8782,8 +9041,9 @@
       </c>
       <c r="K7" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="9" t="s">
@@ -8792,23 +9052,29 @@
       <c r="B8" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>438</v>
+      <c r="C8" s="8">
+        <v>0</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="J8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
       <c r="K8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="9" t="s">
@@ -8821,11 +9087,12 @@
         <v>5</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="F9" s="24"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="8">
         <v>4</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <v>4</v>
       </c>
       <c r="I9" s="8">
@@ -8836,8 +9103,9 @@
       </c>
       <c r="K9" s="8">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
@@ -8850,11 +9118,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="F10" s="24"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="8">
         <v>4</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>3</v>
       </c>
       <c r="I10" s="8">
@@ -8865,410 +9134,683 @@
       </c>
       <c r="K10" s="8">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="9" t="s">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>438</v>
+        <v>517</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="J11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
       <c r="K11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="9" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C12" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="8">
-        <v>5</v>
-      </c>
-      <c r="H12" s="27">
-        <v>4</v>
-      </c>
-      <c r="I12" s="8">
-        <v>5</v>
-      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="26">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8"/>
       <c r="J12" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="9" t="s">
-        <v>387</v>
+        <v>255</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C13" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="F13" s="24"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="8">
         <v>5</v>
       </c>
-      <c r="H13" s="27">
-        <v>0</v>
+      <c r="H13" s="26">
+        <v>4</v>
       </c>
       <c r="I13" s="8">
         <v>5</v>
       </c>
       <c r="J13" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="9" t="s">
-        <v>210</v>
+        <v>387</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C14" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="F14" s="24"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27">
+        <v>5</v>
+      </c>
+      <c r="H14" s="26">
         <v>0</v>
       </c>
       <c r="I14" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J14" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="9" t="s">
-        <v>313</v>
+        <v>210</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C15" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="F15" s="24"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="8">
-        <v>3</v>
-      </c>
-      <c r="H15" s="27">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0</v>
       </c>
       <c r="I15" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="9" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C16" s="8">
         <v>3</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="8">
-        <v>5</v>
-      </c>
-      <c r="H16" s="27">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="H16" s="26">
+        <v>3</v>
       </c>
       <c r="I16" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="8">
         <v>3</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>9</v>
+      </c>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
-        <v>347</v>
+        <v>265</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C17" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="F17" s="24"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="8">
         <v>5</v>
       </c>
-      <c r="H17" s="27">
-        <v>4</v>
+      <c r="H17" s="26">
+        <v>5</v>
       </c>
       <c r="I17" s="8">
         <v>5</v>
       </c>
       <c r="J17" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>11</v>
+      </c>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C18" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="F18" s="24"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="27">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H18" s="26">
+        <v>4</v>
       </c>
       <c r="I18" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>13</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="9" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C19" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="F19" s="24"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="8">
-        <v>3</v>
-      </c>
-      <c r="H19" s="27">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H19" s="26">
+        <v>1</v>
       </c>
       <c r="I19" s="8">
         <v>1</v>
       </c>
       <c r="J19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="8">
+        <v>3</v>
+      </c>
+      <c r="H20" s="26">
+        <v>4</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2</v>
+      </c>
       <c r="K20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>9</v>
+      </c>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="F21" s="24"/>
-      <c r="H21" s="24"/>
+        <v>321</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="26">
+        <v>2</v>
+      </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="8">
+        <v>3</v>
+      </c>
       <c r="K21" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>8</v>
+      </c>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="F22" s="24"/>
-      <c r="H22" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="26">
+        <v>3</v>
+      </c>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="8">
+        <v>5</v>
+      </c>
       <c r="K22" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>13</v>
+      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="H23" s="24"/>
+        <v>356</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="26">
+        <v>0</v>
+      </c>
       <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
       <c r="K23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="H24" s="24"/>
+        <v>166</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="26">
+        <v>0</v>
+      </c>
       <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
       <c r="K24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="H25" s="24"/>
+        <v>230</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="H26" s="24"/>
+        <v>288</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8">
+        <v>2</v>
+      </c>
       <c r="K26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="H27" s="24"/>
+        <v>189</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C27" s="8">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="26">
+        <v>2</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8">
+        <v>3</v>
+      </c>
       <c r="K27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>8</v>
+      </c>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="H28" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="26">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
       <c r="K28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="H29" s="24"/>
+        <v>243</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="26">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8">
+        <v>0</v>
+      </c>
       <c r="K29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="24"/>
-      <c r="H30" s="24"/>
+        <v>276</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="26">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8">
+        <v>2</v>
+      </c>
       <c r="K30" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="F31" s="24"/>
-      <c r="H31" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="C31" s="8">
+        <v>3</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="26">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
       <c r="K31" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="26">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8">
+        <v>0</v>
+      </c>
+      <c r="K32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="C33" s="8">
+        <v>3</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8">
+        <v>2</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="C34" s="8">
+        <v>4</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8">
+        <v>2</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8">
+        <v>4</v>
+      </c>
+      <c r="K34" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L34" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:A30">
@@ -9286,10 +9828,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9303,18 +9845,18 @@
       <c r="B1" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="18">
       <c r="A2" s="10" t="s">
@@ -9323,646 +9865,3056 @@
       <c r="B2" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="I2" s="42" t="s">
+      <c r="G2" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18">
+      <c r="A3" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="35">
+        <v>5</v>
+      </c>
+      <c r="D3" s="36">
+        <v>5</v>
+      </c>
+      <c r="E3" s="35">
+        <v>5</v>
+      </c>
+      <c r="F3" s="36">
+        <v>4</v>
+      </c>
+      <c r="G3" s="35">
+        <v>5</v>
+      </c>
+      <c r="H3" s="36">
+        <v>5</v>
+      </c>
+      <c r="I3" s="42">
+        <f>D3+F3+H3</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18">
+      <c r="A4" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38">
+        <v>3</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38">
+        <v>3</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38">
+        <v>1</v>
+      </c>
+      <c r="I4" s="42">
+        <f t="shared" ref="I4:I34" si="0">D4+F4+H4</f>
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18">
+      <c r="A5" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="21" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="42"/>
+      <c r="K5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18">
+      <c r="A6" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38">
+        <v>3</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38">
+        <v>3</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38">
+        <v>0</v>
+      </c>
+      <c r="I6" s="42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18">
+      <c r="A7" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="37">
+        <v>5</v>
+      </c>
+      <c r="D7" s="38">
+        <v>5</v>
+      </c>
+      <c r="E7" s="37">
+        <v>5</v>
+      </c>
+      <c r="F7" s="38">
+        <v>5</v>
+      </c>
+      <c r="G7" s="37">
+        <v>3</v>
+      </c>
+      <c r="H7" s="38">
+        <v>3</v>
+      </c>
+      <c r="I7" s="42">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18">
+      <c r="A8" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="37">
+        <v>4</v>
+      </c>
+      <c r="D8" s="38">
+        <v>4</v>
+      </c>
+      <c r="E8" s="37">
+        <v>5</v>
+      </c>
+      <c r="F8" s="38">
+        <v>5</v>
+      </c>
+      <c r="G8" s="37">
+        <v>5</v>
+      </c>
+      <c r="H8" s="38">
+        <v>5</v>
+      </c>
+      <c r="I8" s="42">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18">
+      <c r="A9" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="37">
+        <v>4</v>
+      </c>
+      <c r="D9" s="38">
+        <v>4</v>
+      </c>
+      <c r="E9" s="37">
+        <v>5</v>
+      </c>
+      <c r="F9" s="38">
+        <v>5</v>
+      </c>
+      <c r="G9" s="37">
+        <v>5</v>
+      </c>
+      <c r="H9" s="38">
+        <v>4</v>
+      </c>
+      <c r="I9" s="42">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18">
+      <c r="A10" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="37">
+        <v>5</v>
+      </c>
+      <c r="D10" s="38">
+        <v>3</v>
+      </c>
+      <c r="E10" s="37">
+        <v>5</v>
+      </c>
+      <c r="F10" s="38">
+        <v>2</v>
+      </c>
+      <c r="G10" s="37">
+        <v>5</v>
+      </c>
+      <c r="H10" s="38">
+        <v>2</v>
+      </c>
+      <c r="I10" s="42">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18">
+      <c r="A11" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38">
+        <v>3</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38">
+        <v>3</v>
+      </c>
+      <c r="I11" s="42">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18">
+      <c r="A12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" s="37">
+        <v>3</v>
+      </c>
+      <c r="D12" s="38">
+        <v>3</v>
+      </c>
+      <c r="E12" s="37">
+        <v>2</v>
+      </c>
+      <c r="F12" s="38">
+        <v>2</v>
+      </c>
+      <c r="G12" s="37">
+        <v>4</v>
+      </c>
+      <c r="H12" s="38">
+        <v>2</v>
+      </c>
+      <c r="I12" s="42">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18">
+      <c r="A13" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" s="37">
+        <v>5</v>
+      </c>
+      <c r="D13" s="38">
+        <v>4</v>
+      </c>
+      <c r="E13" s="37">
+        <v>5</v>
+      </c>
+      <c r="F13" s="38">
+        <v>5</v>
+      </c>
+      <c r="G13" s="37">
+        <v>5</v>
+      </c>
+      <c r="H13" s="38">
+        <v>3</v>
+      </c>
+      <c r="I13" s="42">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18">
+      <c r="A14" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="C14" s="37">
+        <v>5</v>
+      </c>
+      <c r="D14" s="38">
+        <v>5</v>
+      </c>
+      <c r="E14" s="37">
+        <v>5</v>
+      </c>
+      <c r="F14" s="38">
+        <v>5</v>
+      </c>
+      <c r="G14" s="37">
+        <v>5</v>
+      </c>
+      <c r="H14" s="38">
+        <v>3</v>
+      </c>
+      <c r="I14" s="42">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18">
+      <c r="A15" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="C15" s="37">
+        <v>5</v>
+      </c>
+      <c r="D15" s="38">
+        <v>4</v>
+      </c>
+      <c r="E15" s="37">
+        <v>5</v>
+      </c>
+      <c r="F15" s="38">
+        <v>5</v>
+      </c>
+      <c r="G15" s="37">
+        <v>5</v>
+      </c>
+      <c r="H15" s="38">
+        <v>2</v>
+      </c>
+      <c r="I15" s="42">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18">
+      <c r="A16" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C16" s="37">
+        <v>5</v>
+      </c>
+      <c r="D16" s="38">
+        <v>3</v>
+      </c>
+      <c r="E16" s="37">
+        <v>4</v>
+      </c>
+      <c r="F16" s="38">
+        <v>4</v>
+      </c>
+      <c r="G16" s="37">
+        <v>5</v>
+      </c>
+      <c r="H16" s="38">
+        <v>4</v>
+      </c>
+      <c r="I16" s="42">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18">
+      <c r="A17" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="C17" s="37">
+        <v>3</v>
+      </c>
+      <c r="D17" s="38">
+        <v>4</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="F17" s="38">
+        <v>5</v>
+      </c>
+      <c r="G17" s="37">
+        <v>5</v>
+      </c>
+      <c r="H17" s="38">
+        <v>3</v>
+      </c>
+      <c r="I17" s="42">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18">
+      <c r="A18" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C18" s="37">
+        <v>4</v>
+      </c>
+      <c r="D18" s="38">
+        <v>3</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="F18" s="38">
+        <v>0</v>
+      </c>
+      <c r="G18" s="37">
+        <v>3</v>
+      </c>
+      <c r="H18" s="38">
+        <v>3</v>
+      </c>
+      <c r="I18" s="42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18">
+      <c r="A19" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C19" s="37">
+        <v>3</v>
+      </c>
+      <c r="D19" s="38">
+        <v>3</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="F19" s="38">
+        <v>2</v>
+      </c>
+      <c r="G19" s="37">
+        <v>5</v>
+      </c>
+      <c r="H19" s="38">
+        <v>4</v>
+      </c>
+      <c r="I19" s="42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18">
+      <c r="A20" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C20" s="37">
+        <v>5</v>
+      </c>
+      <c r="D20" s="38">
+        <v>5</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="F20" s="38">
+        <v>4</v>
+      </c>
+      <c r="G20" s="37">
+        <v>5</v>
+      </c>
+      <c r="H20" s="38">
+        <v>5</v>
+      </c>
+      <c r="I20" s="42">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18">
+      <c r="A21" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38">
+        <v>3</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38">
+        <v>3</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38">
+        <v>4</v>
+      </c>
+      <c r="I21" s="42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18">
+      <c r="A22" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38">
+        <v>5</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38">
+        <v>5</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38">
+        <v>5</v>
+      </c>
+      <c r="I22" s="42">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18">
+      <c r="A23" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38">
+        <v>2</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38">
+        <v>2</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38">
+        <v>2</v>
+      </c>
+      <c r="I23" s="42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18">
+      <c r="A24" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38">
+        <v>3</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38">
+        <v>3</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38">
+        <v>3</v>
+      </c>
+      <c r="I24" s="42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18">
+      <c r="A25" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="42"/>
+    </row>
+    <row r="26" spans="1:9" ht="18">
+      <c r="A26" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38">
+        <v>4</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38">
+        <v>3</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38">
+        <v>3</v>
+      </c>
+      <c r="I26" s="42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18">
+      <c r="A27" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38">
+        <v>2</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38">
+        <v>3</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38">
+        <v>1</v>
+      </c>
+      <c r="I27" s="42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18">
+      <c r="A28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38">
+        <v>3</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38">
+        <v>3</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38">
+        <v>3</v>
+      </c>
+      <c r="I28" s="42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18">
+      <c r="A29" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38">
+        <v>5</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38">
+        <v>5</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38">
+        <v>3</v>
+      </c>
+      <c r="I29" s="42">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18">
+      <c r="A30" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38">
+        <v>1</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38">
+        <v>2</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
+        <v>3</v>
+      </c>
+      <c r="I30" s="42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18">
+      <c r="A31" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38">
+        <v>3</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38">
+        <v>3</v>
+      </c>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38">
+        <v>3</v>
+      </c>
+      <c r="I31" s="42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18">
+      <c r="A32" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38">
+        <v>4</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38">
+        <v>3</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38">
+        <v>4</v>
+      </c>
+      <c r="I32" s="42">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18">
+      <c r="A33" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38">
+        <v>2</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38">
+        <v>5</v>
+      </c>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38">
+        <v>4</v>
+      </c>
+      <c r="I33" s="42">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18">
+      <c r="A34" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40">
+        <v>2</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40">
+        <v>3</v>
+      </c>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40">
+        <v>3</v>
+      </c>
+      <c r="I34" s="42">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="53"/>
+    <col min="2" max="2" width="23.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="53" customWidth="1"/>
+    <col min="6" max="8" width="12.1640625" style="53" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="53" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18">
+      <c r="A1" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>509</v>
+      </c>
+      <c r="P1" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q1" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="R1" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="S1" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="T1" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="U1" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="V1" s="47" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="18">
+      <c r="A2" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B2" s="48" t="s">
         <v>418</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C2" s="37">
         <v>5</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D2" s="49">
+        <v>4</v>
+      </c>
+      <c r="E2" s="38">
         <v>5</v>
       </c>
-      <c r="E3" s="36">
+      <c r="F2" s="31">
+        <v>3</v>
+      </c>
+      <c r="G2" s="50">
         <v>5</v>
       </c>
-      <c r="F3" s="37">
-        <v>4</v>
-      </c>
-      <c r="G3" s="36">
+      <c r="H2" s="26">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4">
+        <v>1</v>
+      </c>
+      <c r="S2" s="63">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4">
+        <v>1</v>
+      </c>
+      <c r="U2" s="4">
+        <v>1</v>
+      </c>
+      <c r="V2" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18">
+      <c r="A3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="37">
+        <v>3</v>
+      </c>
+      <c r="D3" s="49">
+        <v>3</v>
+      </c>
+      <c r="E3" s="38">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50">
+        <v>2</v>
+      </c>
+      <c r="H3" s="26">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4">
+        <v>1</v>
+      </c>
+      <c r="S3" s="63">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18">
+      <c r="A4" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="62"/>
+    </row>
+    <row r="5" spans="1:22" ht="18">
+      <c r="A5" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="C5" s="37">
+        <v>3</v>
+      </c>
+      <c r="D5" s="49">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
+        <v>3</v>
+      </c>
+      <c r="G5" s="50">
+        <v>3</v>
+      </c>
+      <c r="H5" s="26">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1</v>
+      </c>
+      <c r="S5" s="63">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18">
+      <c r="A6" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" s="37">
         <v>5</v>
       </c>
-      <c r="H3" s="37">
+      <c r="D6" s="49">
         <v>5</v>
       </c>
-      <c r="I3" s="43">
-        <f>C3+D3+F3+G3+H3</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18">
-      <c r="A4" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="43">
-        <f t="shared" ref="I4:I19" si="0">C4+D4+F4+G4+H4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18">
-      <c r="A5" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18">
-      <c r="A6" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18">
-      <c r="A7" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="C7" s="38">
-        <v>5</v>
-      </c>
-      <c r="D7" s="39">
+      <c r="E6" s="38">
+        <v>3</v>
+      </c>
+      <c r="F6" s="31">
+        <v>4</v>
+      </c>
+      <c r="G6" s="50">
+        <v>3</v>
+      </c>
+      <c r="H6" s="26">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="63">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="18">
+      <c r="A7" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="37">
+        <v>4</v>
+      </c>
+      <c r="D7" s="49">
         <v>5</v>
       </c>
       <c r="E7" s="38">
         <v>5</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="31">
+        <v>0</v>
+      </c>
+      <c r="G7" s="50">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="63">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="18">
+      <c r="A8" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="37">
+        <v>4</v>
+      </c>
+      <c r="D8" s="49">
         <v>5</v>
       </c>
-      <c r="G7" s="38">
-        <v>3</v>
-      </c>
-      <c r="H7" s="39">
-        <v>3</v>
-      </c>
-      <c r="I7" s="43">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18">
-      <c r="A8" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="38">
-        <v>4</v>
-      </c>
-      <c r="D8" s="39">
-        <v>4</v>
-      </c>
       <c r="E8" s="38">
+        <v>4</v>
+      </c>
+      <c r="F8" s="31">
         <v>5</v>
       </c>
-      <c r="F8" s="39">
+      <c r="G8" s="50">
+        <v>4</v>
+      </c>
+      <c r="H8" s="26">
         <v>5</v>
       </c>
-      <c r="G8" s="38">
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="63">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="V8" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="18">
+      <c r="A9" s="60" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="37">
+        <v>3</v>
+      </c>
+      <c r="D9" s="49">
+        <v>2</v>
+      </c>
+      <c r="E9" s="38">
+        <v>2</v>
+      </c>
+      <c r="F9" s="31">
+        <v>3</v>
+      </c>
+      <c r="G9" s="50">
+        <v>3</v>
+      </c>
+      <c r="H9" s="26">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="63">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="18">
+      <c r="A10" s="60" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="C10" s="37">
+        <v>1</v>
+      </c>
+      <c r="D10" s="49">
+        <v>3</v>
+      </c>
+      <c r="E10" s="38">
+        <v>3</v>
+      </c>
+      <c r="F10" s="31">
+        <v>0</v>
+      </c>
+      <c r="G10" s="50">
+        <v>1</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="63">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18">
+      <c r="A11" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="37">
+        <v>3</v>
+      </c>
+      <c r="D11" s="49">
+        <v>2</v>
+      </c>
+      <c r="E11" s="38">
+        <v>2</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0</v>
+      </c>
+      <c r="G11" s="50">
+        <v>0</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4">
+        <v>1</v>
+      </c>
+      <c r="S11" s="63">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
+        <v>1</v>
+      </c>
+      <c r="U11" s="4">
+        <v>1</v>
+      </c>
+      <c r="V11" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="18">
+      <c r="A12" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="C12" s="37">
+        <v>4</v>
+      </c>
+      <c r="D12" s="49">
         <v>5</v>
       </c>
-      <c r="H8" s="39">
+      <c r="E12" s="38">
+        <v>3</v>
+      </c>
+      <c r="F12" s="31">
+        <v>2</v>
+      </c>
+      <c r="G12" s="50">
+        <v>4</v>
+      </c>
+      <c r="H12" s="26">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="S12" s="63">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="V12" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="18">
+      <c r="A13" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="37">
         <v>5</v>
       </c>
-      <c r="I8" s="43">
-        <f t="shared" si="0"/>
+      <c r="D13" s="49">
+        <v>5</v>
+      </c>
+      <c r="E13" s="38">
+        <v>3</v>
+      </c>
+      <c r="F13" s="31">
+        <v>5</v>
+      </c>
+      <c r="G13" s="50">
+        <v>0</v>
+      </c>
+      <c r="H13" s="26">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="S13" s="63">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="V13" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="18">
+      <c r="A14" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="37">
+        <v>4</v>
+      </c>
+      <c r="D14" s="49">
+        <v>5</v>
+      </c>
+      <c r="E14" s="38">
+        <v>2</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0</v>
+      </c>
+      <c r="G14" s="50">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" s="63">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
+        <v>1</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18">
+      <c r="A15" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="37">
+        <v>3</v>
+      </c>
+      <c r="D15" s="49">
+        <v>4</v>
+      </c>
+      <c r="E15" s="38">
+        <v>4</v>
+      </c>
+      <c r="F15" s="31">
+        <v>3</v>
+      </c>
+      <c r="G15" s="50">
+        <v>3</v>
+      </c>
+      <c r="H15" s="26">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="S15" s="63">
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
+        <v>1</v>
+      </c>
+      <c r="U15" s="4">
+        <v>1</v>
+      </c>
+      <c r="V15" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="18">
+      <c r="A16" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" s="37">
+        <v>4</v>
+      </c>
+      <c r="D16" s="49">
+        <v>5</v>
+      </c>
+      <c r="E16" s="38">
+        <v>3</v>
+      </c>
+      <c r="F16" s="31">
+        <v>3</v>
+      </c>
+      <c r="G16" s="50">
+        <v>5</v>
+      </c>
+      <c r="H16" s="26">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>1</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="S16" s="63">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <v>1</v>
+      </c>
+      <c r="V16" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="18">
+      <c r="A17" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" s="37">
+        <v>3</v>
+      </c>
+      <c r="D17" s="49">
+        <v>0</v>
+      </c>
+      <c r="E17" s="38">
+        <v>3</v>
+      </c>
+      <c r="F17" s="31">
+        <v>5</v>
+      </c>
+      <c r="G17" s="50">
+        <v>4</v>
+      </c>
+      <c r="H17" s="26">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" s="63">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1</v>
+      </c>
+      <c r="V17" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="18">
+      <c r="A18" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" s="37">
+        <v>3</v>
+      </c>
+      <c r="D18" s="49">
+        <v>2</v>
+      </c>
+      <c r="E18" s="38">
+        <v>4</v>
+      </c>
+      <c r="F18" s="31">
+        <v>1</v>
+      </c>
+      <c r="G18" s="50">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="63">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
+        <v>1</v>
+      </c>
+      <c r="U18" s="4">
+        <v>1</v>
+      </c>
+      <c r="V18" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="18">
+      <c r="A19" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="C19" s="37">
+        <v>5</v>
+      </c>
+      <c r="D19" s="49">
+        <v>4</v>
+      </c>
+      <c r="E19" s="38">
+        <v>5</v>
+      </c>
+      <c r="F19" s="31">
+        <v>3</v>
+      </c>
+      <c r="G19" s="50">
+        <v>4</v>
+      </c>
+      <c r="H19" s="26">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" s="63">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="18">
+      <c r="A20" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="C20" s="37">
+        <v>3</v>
+      </c>
+      <c r="D20" s="49">
+        <v>3</v>
+      </c>
+      <c r="E20" s="38">
+        <v>4</v>
+      </c>
+      <c r="F20" s="31">
+        <v>3</v>
+      </c>
+      <c r="G20" s="50">
+        <v>2</v>
+      </c>
+      <c r="H20" s="26">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>1</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="63">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="18">
+      <c r="A21" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="C21" s="37">
+        <v>5</v>
+      </c>
+      <c r="D21" s="49">
+        <v>5</v>
+      </c>
+      <c r="E21" s="38">
+        <v>5</v>
+      </c>
+      <c r="F21" s="31">
+        <v>5</v>
+      </c>
+      <c r="G21" s="50">
+        <v>3</v>
+      </c>
+      <c r="H21" s="26">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="63">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="18">
+      <c r="A22" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>494</v>
+      </c>
+      <c r="C22" s="37">
+        <v>2</v>
+      </c>
+      <c r="D22" s="49">
+        <v>2</v>
+      </c>
+      <c r="E22" s="38">
+        <v>2</v>
+      </c>
+      <c r="F22" s="31">
+        <v>0</v>
+      </c>
+      <c r="G22" s="50">
+        <v>0</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="S22" s="63">
+        <v>1</v>
+      </c>
+      <c r="T22" s="4">
+        <v>1</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="18">
+      <c r="A23" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" s="37">
+        <v>3</v>
+      </c>
+      <c r="D23" s="49">
+        <v>3</v>
+      </c>
+      <c r="E23" s="38">
+        <v>3</v>
+      </c>
+      <c r="F23" s="31">
+        <v>0</v>
+      </c>
+      <c r="G23" s="50">
+        <v>0</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="45"/>
+    </row>
+    <row r="24" spans="1:22" ht="18">
+      <c r="A24" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="45"/>
+    </row>
+    <row r="25" spans="1:22" ht="18">
+      <c r="A25" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>490</v>
+      </c>
+      <c r="C25" s="37">
+        <v>4</v>
+      </c>
+      <c r="D25" s="49">
+        <v>3</v>
+      </c>
+      <c r="E25" s="38">
+        <v>3</v>
+      </c>
+      <c r="F25" s="31">
+        <v>0</v>
+      </c>
+      <c r="G25" s="50">
+        <v>2</v>
+      </c>
+      <c r="H25" s="26">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="S25" s="63">
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1</v>
+      </c>
+      <c r="V25" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="18">
+      <c r="A26" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>492</v>
+      </c>
+      <c r="C26" s="37">
+        <v>2</v>
+      </c>
+      <c r="D26" s="49">
+        <v>3</v>
+      </c>
+      <c r="E26" s="38">
+        <v>1</v>
+      </c>
+      <c r="F26" s="31">
+        <v>3</v>
+      </c>
+      <c r="G26" s="50">
+        <v>2</v>
+      </c>
+      <c r="H26" s="26">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1</v>
+      </c>
+      <c r="S26" s="63">
+        <v>1</v>
+      </c>
+      <c r="T26" s="4">
+        <v>1</v>
+      </c>
+      <c r="U26" s="4">
+        <v>1</v>
+      </c>
+      <c r="V26" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="18">
+      <c r="A27" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" s="37">
+        <v>3</v>
+      </c>
+      <c r="D27" s="49">
+        <v>3</v>
+      </c>
+      <c r="E27" s="38">
+        <v>3</v>
+      </c>
+      <c r="F27" s="31">
+        <v>0</v>
+      </c>
+      <c r="G27" s="50">
+        <v>0</v>
+      </c>
+      <c r="H27" s="26">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>1</v>
+      </c>
+      <c r="R27" s="4">
+        <v>1</v>
+      </c>
+      <c r="S27" s="63">
+        <v>1</v>
+      </c>
+      <c r="T27" s="4">
+        <v>1</v>
+      </c>
+      <c r="U27" s="4">
+        <v>1</v>
+      </c>
+      <c r="V27" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="18">
+      <c r="A28" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="C28" s="37">
+        <v>5</v>
+      </c>
+      <c r="D28" s="49">
+        <v>5</v>
+      </c>
+      <c r="E28" s="38">
+        <v>3</v>
+      </c>
+      <c r="F28" s="31">
+        <v>0</v>
+      </c>
+      <c r="G28" s="50">
+        <v>0</v>
+      </c>
+      <c r="H28" s="26">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>1</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="S28" s="63">
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
+        <v>1</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1</v>
+      </c>
+      <c r="V28" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="18">
+      <c r="A29" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="C29" s="37">
+        <v>1</v>
+      </c>
+      <c r="D29" s="49">
+        <v>2</v>
+      </c>
+      <c r="E29" s="38">
+        <v>3</v>
+      </c>
+      <c r="F29" s="31">
+        <v>1</v>
+      </c>
+      <c r="G29" s="50">
+        <v>1</v>
+      </c>
+      <c r="H29" s="26">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>1</v>
+      </c>
+      <c r="R29" s="4">
+        <v>1</v>
+      </c>
+      <c r="S29" s="63">
+        <v>1</v>
+      </c>
+      <c r="T29" s="4">
+        <v>1</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="V29" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="18">
+      <c r="A30" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="C30" s="37">
+        <v>3</v>
+      </c>
+      <c r="D30" s="49">
+        <v>3</v>
+      </c>
+      <c r="E30" s="38">
+        <v>3</v>
+      </c>
+      <c r="F30" s="31">
+        <v>3</v>
+      </c>
+      <c r="G30" s="50">
+        <v>0</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1</v>
+      </c>
+      <c r="R30" s="4">
+        <v>1</v>
+      </c>
+      <c r="S30" s="63">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
+        <v>1</v>
+      </c>
+      <c r="U30" s="4">
+        <v>1</v>
+      </c>
+      <c r="V30" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="18">
+      <c r="A31" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="C31" s="37">
+        <v>4</v>
+      </c>
+      <c r="D31" s="49">
+        <v>3</v>
+      </c>
+      <c r="E31" s="38">
+        <v>4</v>
+      </c>
+      <c r="F31" s="31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="50">
+        <v>0</v>
+      </c>
+      <c r="H31" s="26">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>1</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>1</v>
+      </c>
+      <c r="R31" s="4">
+        <v>1</v>
+      </c>
+      <c r="S31" s="63">
+        <v>1</v>
+      </c>
+      <c r="T31" s="4">
+        <v>1</v>
+      </c>
+      <c r="U31" s="4">
+        <v>1</v>
+      </c>
+      <c r="V31" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="18">
+      <c r="A32" s="50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="18">
-      <c r="A9" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9" s="38">
-        <v>4</v>
-      </c>
-      <c r="D9" s="39">
-        <v>4</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="B32" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="C32" s="37">
+        <v>2</v>
+      </c>
+      <c r="D32" s="49">
         <v>5</v>
       </c>
-      <c r="F9" s="39">
-        <v>5</v>
-      </c>
-      <c r="G9" s="38">
-        <v>5</v>
-      </c>
-      <c r="H9" s="39">
-        <v>4</v>
-      </c>
-      <c r="I9" s="43">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18">
-      <c r="A10" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="C10" s="38">
-        <v>5</v>
-      </c>
-      <c r="D10" s="39">
-        <v>3</v>
-      </c>
-      <c r="E10" s="38">
-        <v>5</v>
-      </c>
-      <c r="F10" s="39">
-        <v>2</v>
-      </c>
-      <c r="G10" s="38">
-        <v>5</v>
-      </c>
-      <c r="H10" s="39">
-        <v>2</v>
-      </c>
-      <c r="I10" s="43">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18">
-      <c r="A11" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="C11" s="38">
-        <v>3</v>
-      </c>
-      <c r="D11" s="39">
-        <v>3</v>
-      </c>
-      <c r="E11" s="38">
-        <v>2</v>
-      </c>
-      <c r="F11" s="39">
-        <v>2</v>
-      </c>
-      <c r="G11" s="38">
-        <v>4</v>
-      </c>
-      <c r="H11" s="39">
-        <v>2</v>
-      </c>
-      <c r="I11" s="43">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="18">
-      <c r="A12" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="C12" s="38">
-        <v>5</v>
-      </c>
-      <c r="D12" s="39">
-        <v>4</v>
-      </c>
-      <c r="E12" s="38">
-        <v>5</v>
-      </c>
-      <c r="F12" s="39">
-        <v>5</v>
-      </c>
-      <c r="G12" s="38">
-        <v>5</v>
-      </c>
-      <c r="H12" s="39">
-        <v>3</v>
-      </c>
-      <c r="I12" s="43">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18">
-      <c r="A13" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="C13" s="38">
-        <v>5</v>
-      </c>
-      <c r="D13" s="39">
-        <v>5</v>
-      </c>
-      <c r="E13" s="38">
-        <v>5</v>
-      </c>
-      <c r="F13" s="39">
-        <v>5</v>
-      </c>
-      <c r="G13" s="38">
-        <v>5</v>
-      </c>
-      <c r="H13" s="39">
-        <v>3</v>
-      </c>
-      <c r="I13" s="43">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18">
-      <c r="A14" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="C14" s="38">
-        <v>5</v>
-      </c>
-      <c r="D14" s="39">
-        <v>4</v>
-      </c>
-      <c r="E14" s="38">
-        <v>5</v>
-      </c>
-      <c r="F14" s="39">
-        <v>5</v>
-      </c>
-      <c r="G14" s="38">
-        <v>5</v>
-      </c>
-      <c r="H14" s="39">
-        <v>2</v>
-      </c>
-      <c r="I14" s="43">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18">
-      <c r="A15" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="C15" s="38">
-        <v>5</v>
-      </c>
-      <c r="D15" s="39">
-        <v>3</v>
-      </c>
-      <c r="E15" s="38">
-        <v>4</v>
-      </c>
-      <c r="F15" s="39">
-        <v>4</v>
-      </c>
-      <c r="G15" s="38">
-        <v>5</v>
-      </c>
-      <c r="H15" s="39">
-        <v>4</v>
-      </c>
-      <c r="I15" s="43">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18">
-      <c r="A16" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="C16" s="38">
-        <v>3</v>
-      </c>
-      <c r="D16" s="39">
-        <v>4</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="F16" s="39">
-        <v>5</v>
-      </c>
-      <c r="G16" s="38">
-        <v>5</v>
-      </c>
-      <c r="H16" s="39">
-        <v>3</v>
-      </c>
-      <c r="I16" s="43">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18">
-      <c r="A17" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="C17" s="38">
-        <v>4</v>
-      </c>
-      <c r="D17" s="39">
-        <v>3</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="F17" s="39">
-        <v>0</v>
-      </c>
-      <c r="G17" s="38">
-        <v>3</v>
-      </c>
-      <c r="H17" s="39">
-        <v>3</v>
-      </c>
-      <c r="I17" s="43">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18">
-      <c r="A18" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="C18" s="38">
-        <v>3</v>
-      </c>
-      <c r="D18" s="39">
-        <v>3</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="F18" s="39">
-        <v>2</v>
-      </c>
-      <c r="G18" s="38">
-        <v>5</v>
-      </c>
-      <c r="H18" s="39">
-        <v>4</v>
-      </c>
-      <c r="I18" s="43">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18">
-      <c r="A19" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="C19" s="38">
-        <v>5</v>
-      </c>
-      <c r="D19" s="39">
-        <v>5</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="F19" s="39">
-        <v>4</v>
-      </c>
-      <c r="G19" s="38">
-        <v>5</v>
-      </c>
-      <c r="H19" s="39">
-        <v>5</v>
-      </c>
-      <c r="I19" s="43">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18">
-      <c r="A20" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="43"/>
-    </row>
-    <row r="21" spans="1:9" ht="18">
-      <c r="A21" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
-    </row>
-    <row r="23" spans="1:9" ht="18">
-      <c r="A23" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
-    </row>
-    <row r="24" spans="1:9" ht="18">
-      <c r="A24" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39"/>
-    </row>
-    <row r="25" spans="1:9" ht="18">
-      <c r="A25" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39"/>
-    </row>
-    <row r="26" spans="1:9" ht="18">
-      <c r="A26" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
-    </row>
-    <row r="27" spans="1:9" ht="18">
-      <c r="A27" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
-    </row>
-    <row r="28" spans="1:9" ht="18">
-      <c r="A28" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
-    </row>
-    <row r="29" spans="1:9" ht="18">
-      <c r="A29" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-    </row>
-    <row r="30" spans="1:9" ht="18">
-      <c r="A30" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
-    </row>
-    <row r="31" spans="1:9" ht="18">
-      <c r="A31" s="35" t="s">
+      <c r="E32" s="38">
+        <v>4</v>
+      </c>
+      <c r="F32" s="31">
+        <v>3</v>
+      </c>
+      <c r="G32" s="50">
+        <v>1</v>
+      </c>
+      <c r="H32" s="26">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>1</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1</v>
+      </c>
+      <c r="S32" s="63">
+        <v>1</v>
+      </c>
+      <c r="T32" s="4">
+        <v>1</v>
+      </c>
+      <c r="U32" s="4">
+        <v>1</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="18">
+      <c r="A33" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="41"/>
+      <c r="B33" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="C33" s="39">
+        <v>2</v>
+      </c>
+      <c r="D33" s="57">
+        <v>3</v>
+      </c>
+      <c r="E33" s="40">
+        <v>3</v>
+      </c>
+      <c r="F33" s="34">
+        <v>4</v>
+      </c>
+      <c r="G33" s="58">
+        <v>2</v>
+      </c>
+      <c r="H33" s="59">
+        <v>4</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>2</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1</v>
+      </c>
+      <c r="S33" s="63">
+        <v>1</v>
+      </c>
+      <c r="T33" s="4">
+        <v>1</v>
+      </c>
+      <c r="U33" s="4">
+        <v>1</v>
+      </c>
+      <c r="V33" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
